--- a/results/Hyperparameter_Tuning/Graph_Embedding_SkipGNN.xlsx
+++ b/results/Hyperparameter_Tuning/Graph_Embedding_SkipGNN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="deepwalk" sheetId="16" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="GraRep" sheetId="18" r:id="rId5"/>
     <sheet name="SDNE" sheetId="13" r:id="rId6"/>
     <sheet name="VAE" sheetId="22" r:id="rId7"/>
-    <sheet name="Summary" sheetId="17" r:id="rId8"/>
-    <sheet name="node2vec_nw8_wl32" sheetId="21" r:id="rId9"/>
-    <sheet name="node2vec_nw128_wl8" sheetId="19" r:id="rId10"/>
+    <sheet name="ripple2vec" sheetId="23" r:id="rId8"/>
+    <sheet name="Summary" sheetId="17" r:id="rId9"/>
+    <sheet name="node2vec_nw8_wl32" sheetId="21" r:id="rId10"/>
+    <sheet name="node2vec_nw128_wl8" sheetId="19" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="38">
   <si>
     <t>Accuracy</t>
   </si>
@@ -133,9 +134,6 @@
   </si>
   <si>
     <t>Skip-GNN</t>
-  </si>
-  <si>
-    <t>FNN</t>
   </si>
   <si>
     <t>hidden1</t>
@@ -370,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -415,7 +413,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -433,6 +430,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,7 +470,63 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG"/>
+              <a:t>Skip-GNN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1877,44 +1932,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>518564</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12534900" y="180975"/>
-          <a:ext cx="4785764" cy="2876550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3340,6 +3357,857 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C2">
+        <v>0.93020000000000003</v>
+      </c>
+      <c r="D2">
+        <v>0.89349999999999996</v>
+      </c>
+      <c r="E2">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="F2">
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.92710000000000004</v>
+      </c>
+      <c r="H2">
+        <v>0.98180000000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.9365</v>
+      </c>
+      <c r="D3">
+        <v>0.9214</v>
+      </c>
+      <c r="E3">
+        <v>0.95140000000000002</v>
+      </c>
+      <c r="F3">
+        <v>0.95</v>
+      </c>
+      <c r="G3">
+        <v>0.93489999999999995</v>
+      </c>
+      <c r="H3">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="I3">
+        <v>0.9728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.91849999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="G4">
+        <v>0.91310000000000002</v>
+      </c>
+      <c r="H4">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="I4">
+        <v>0.97230000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="D5">
+        <v>0.87909999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.96870000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="G5">
+        <v>0.91979999999999995</v>
+      </c>
+      <c r="H5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="D6">
+        <v>0.86119999999999997</v>
+      </c>
+      <c r="E6">
+        <v>0.9798</v>
+      </c>
+      <c r="F6">
+        <v>0.9768</v>
+      </c>
+      <c r="G6">
+        <v>0.9153</v>
+      </c>
+      <c r="H6">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="I6">
+        <v>0.98829999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C8">
+        <v>0.93020000000000003</v>
+      </c>
+      <c r="D8">
+        <v>0.89319999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.96719999999999995</v>
+      </c>
+      <c r="F8">
+        <v>0.96460000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.98640000000000005</v>
+      </c>
+      <c r="I8">
+        <v>0.98680000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>0.93389999999999995</v>
+      </c>
+      <c r="D9">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="F9">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="G9">
+        <v>0.93089999999999995</v>
+      </c>
+      <c r="H9">
+        <v>0.9899</v>
+      </c>
+      <c r="I9">
+        <v>0.99009999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0.93489999999999995</v>
+      </c>
+      <c r="D10">
+        <v>0.90010000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.96970000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.96840000000000004</v>
+      </c>
+      <c r="G10">
+        <v>0.93220000000000003</v>
+      </c>
+      <c r="H10">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="I10">
+        <v>0.98719999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0.92789999999999995</v>
+      </c>
+      <c r="D11">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="E11">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="F11">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="G11">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="H11">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.9839</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.87549999999999994</v>
+      </c>
+      <c r="E12">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F12">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="G12">
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="H12">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="I12">
+        <v>0.98129999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C14">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="D14">
+        <v>0.88109999999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.96989999999999998</v>
+      </c>
+      <c r="F14">
+        <v>0.96679999999999999</v>
+      </c>
+      <c r="G14">
+        <v>0.92169999999999996</v>
+      </c>
+      <c r="H14">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.98640000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>0.92269999999999996</v>
+      </c>
+      <c r="D15">
+        <v>0.86709999999999998</v>
+      </c>
+      <c r="E15">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="F15">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="G15">
+        <v>0.91749999999999998</v>
+      </c>
+      <c r="H15">
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="I15">
+        <v>0.98509999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0.9224</v>
+      </c>
+      <c r="D16">
+        <v>0.87719999999999998</v>
+      </c>
+      <c r="E16">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.96479999999999999</v>
+      </c>
+      <c r="G16">
+        <v>0.91830000000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="I16">
+        <v>0.98709999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="D17">
+        <v>0.85970000000000002</v>
+      </c>
+      <c r="E17">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="F17">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="G17">
+        <v>0.91190000000000004</v>
+      </c>
+      <c r="H17">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="I17">
+        <v>0.98480000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>0.92630000000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="E18">
+        <v>0.97209999999999996</v>
+      </c>
+      <c r="F18">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="G18">
+        <v>0.92330000000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="I18">
+        <v>0.98980000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C20">
+        <v>0.9365</v>
+      </c>
+      <c r="D20">
+        <v>0.89849999999999997</v>
+      </c>
+      <c r="E20">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="F20">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="G20">
+        <v>0.93340000000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.98619999999999997</v>
+      </c>
+      <c r="I20">
+        <v>0.98770000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C21">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="D21">
+        <v>0.85919999999999996</v>
+      </c>
+      <c r="E21">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="F21">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="G21">
+        <v>0.91169999999999995</v>
+      </c>
+      <c r="H21">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="I21">
+        <v>0.98660000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>2</v>
+      </c>
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0.92859999999999998</v>
+      </c>
+      <c r="D22">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="E22">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="F22">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="G22">
+        <v>0.92520000000000002</v>
+      </c>
+      <c r="H22">
+        <v>0.98270000000000002</v>
+      </c>
+      <c r="I22">
+        <v>0.98380000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="D23">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="E23">
+        <v>0.96960000000000002</v>
+      </c>
+      <c r="F23">
+        <v>0.96619999999999995</v>
+      </c>
+      <c r="G23">
+        <v>0.92069999999999996</v>
+      </c>
+      <c r="H23">
+        <v>0.98640000000000005</v>
+      </c>
+      <c r="I23">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>0.9294</v>
+      </c>
+      <c r="D24">
+        <v>0.89690000000000003</v>
+      </c>
+      <c r="E24">
+        <v>0.96279999999999999</v>
+      </c>
+      <c r="F24">
+        <v>0.96140000000000003</v>
+      </c>
+      <c r="G24">
+        <v>0.9274</v>
+      </c>
+      <c r="H24">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="I24">
+        <v>0.98629999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>4</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C26">
+        <v>0.92759999999999998</v>
+      </c>
+      <c r="D26">
+        <v>0.88490000000000002</v>
+      </c>
+      <c r="E26">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="F26">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="G26">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="H26">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="I26">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>4</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C27">
+        <v>0.9073</v>
+      </c>
+      <c r="D27">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="E27">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="F27">
+        <v>0.97260000000000002</v>
+      </c>
+      <c r="G27">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="H27">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="I27">
+        <v>0.97460000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>4</v>
+      </c>
+      <c r="B28" s="10">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0.94089999999999996</v>
+      </c>
+      <c r="D28">
+        <v>0.91879999999999995</v>
+      </c>
+      <c r="E28">
+        <v>0.96279999999999999</v>
+      </c>
+      <c r="F28">
+        <v>0.9607</v>
+      </c>
+      <c r="G28">
+        <v>0.93889999999999996</v>
+      </c>
+      <c r="H28">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="I28">
+        <v>0.98619999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>4</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>0.92210000000000003</v>
+      </c>
+      <c r="D29">
+        <v>0.86429999999999996</v>
+      </c>
+      <c r="E29">
+        <v>0.9798</v>
+      </c>
+      <c r="F29">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="G29">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="H29">
+        <v>0.9798</v>
+      </c>
+      <c r="I29">
+        <v>0.98380000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>4</v>
+      </c>
+      <c r="B30" s="4">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>0.92030000000000001</v>
+      </c>
+      <c r="D30">
+        <v>0.86890000000000001</v>
+      </c>
+      <c r="E30">
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="F30">
+        <v>0.96950000000000003</v>
+      </c>
+      <c r="G30">
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="H30">
+        <v>0.99</v>
+      </c>
+      <c r="I30">
+        <v>0.98950000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <f>MAX(C2:C30)</f>
+        <v>0.94089999999999996</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32:I32" si="0">MAX(G2:G30)</f>
+        <v>0.93889999999999996</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>0.99009999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <f>MIN(C2:C30)</f>
+        <v>0.9073</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:I33" si="1">MIN(G2:G30)</f>
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>0.9798</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>0.97230000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="18">
+        <f>AVERAGE(C2:C30)</f>
+        <v>0.92606000000000011</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18">
+        <f t="shared" ref="G34:I34" si="2">AVERAGE(G2:G30)</f>
+        <v>0.9220879999999998</v>
+      </c>
+      <c r="H34" s="18">
+        <f t="shared" si="2"/>
+        <v>0.98555999999999999</v>
+      </c>
+      <c r="I34" s="18">
+        <f t="shared" si="2"/>
+        <v>0.98429599999999962</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -5128,7 +5996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
@@ -7472,10 +8340,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -7498,8 +8366,8 @@
       <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="45" t="s">
-        <v>36</v>
+      <c r="K1" s="44" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7705,10 +8573,863 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0.91149999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.84340000000000004</v>
+      </c>
+      <c r="E2">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="F2">
+        <v>0.9738</v>
+      </c>
+      <c r="G2">
+        <v>0.90359999999999996</v>
+      </c>
+      <c r="H2">
+        <v>0.99</v>
+      </c>
+      <c r="I2">
+        <v>0.98939999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>0.92710000000000004</v>
+      </c>
+      <c r="D3">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="E3">
+        <v>0.96509999999999996</v>
+      </c>
+      <c r="F3">
+        <v>0.96260000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="H3">
+        <v>0.9879</v>
+      </c>
+      <c r="I3">
+        <v>0.98529999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>0.93389999999999995</v>
+      </c>
+      <c r="D4">
+        <v>0.9093</v>
+      </c>
+      <c r="E4">
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="F4">
+        <v>0.95660000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="H4">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="I4">
+        <v>0.9869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>0.92789999999999995</v>
+      </c>
+      <c r="D5">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.97350000000000003</v>
+      </c>
+      <c r="F5">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="H5">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="I5">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>8</v>
+      </c>
+      <c r="B7" s="21">
+        <v>256</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0.92320000000000002</v>
+      </c>
+      <c r="D9">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="E9">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.97350000000000003</v>
+      </c>
+      <c r="G9">
+        <v>0.91879999999999995</v>
+      </c>
+      <c r="H9">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="I9">
+        <v>0.99029999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>0.92420000000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.87229999999999996</v>
+      </c>
+      <c r="E10">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="G10">
+        <v>0.92020000000000002</v>
+      </c>
+      <c r="H10">
+        <v>0.9879</v>
+      </c>
+      <c r="I10">
+        <v>0.98570000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>16</v>
+      </c>
+      <c r="B11" s="10">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>0.92859999999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.88939999999999997</v>
+      </c>
+      <c r="E11">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="F11">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="G11">
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="H11">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="I11">
+        <v>0.98880000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4">
+        <v>64</v>
+      </c>
+      <c r="C12">
+        <v>0.92859999999999998</v>
+      </c>
+      <c r="D12">
+        <v>0.8871</v>
+      </c>
+      <c r="E12">
+        <v>0.96989999999999998</v>
+      </c>
+      <c r="F12">
+        <v>0.96730000000000005</v>
+      </c>
+      <c r="G12">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="H12">
+        <v>0.99</v>
+      </c>
+      <c r="I12">
+        <v>0.9899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <v>16</v>
+      </c>
+      <c r="B14" s="21">
+        <v>256</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>32</v>
+      </c>
+      <c r="B16" s="4">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>0.92269999999999996</v>
+      </c>
+      <c r="D16">
+        <v>0.872</v>
+      </c>
+      <c r="E16">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="F16">
+        <v>0.97060000000000002</v>
+      </c>
+      <c r="G16">
+        <v>0.91839999999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="I16">
+        <v>0.98970000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>0.91559999999999997</v>
+      </c>
+      <c r="D17">
+        <v>0.85619999999999996</v>
+      </c>
+      <c r="E17">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F17">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="G17">
+        <v>0.91</v>
+      </c>
+      <c r="H17">
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="I17">
+        <v>0.98550000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>32</v>
+      </c>
+      <c r="B18" s="10">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>0.9234</v>
+      </c>
+      <c r="D18">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="E18">
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.97489999999999999</v>
+      </c>
+      <c r="G18">
+        <v>0.91890000000000005</v>
+      </c>
+      <c r="H18">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>32</v>
+      </c>
+      <c r="B19" s="4">
+        <v>64</v>
+      </c>
+      <c r="C19">
+        <v>0.93589999999999995</v>
+      </c>
+      <c r="D19">
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="E19">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="F19">
+        <v>0.96340000000000003</v>
+      </c>
+      <c r="G19">
+        <v>0.93379999999999996</v>
+      </c>
+      <c r="H19">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="I19">
+        <v>0.98619999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>32</v>
+      </c>
+      <c r="B20" s="21">
+        <v>128</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>32</v>
+      </c>
+      <c r="B21" s="21">
+        <v>256</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>64</v>
+      </c>
+      <c r="B23" s="4">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="D23">
+        <v>0.8468</v>
+      </c>
+      <c r="E23">
+        <v>0.97370000000000001</v>
+      </c>
+      <c r="F23">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="G23">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="H23">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="I23">
+        <v>0.98680000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>64</v>
+      </c>
+      <c r="B24" s="4">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.91710000000000003</v>
+      </c>
+      <c r="E24">
+        <v>0.96589999999999998</v>
+      </c>
+      <c r="F24">
+        <v>0.96489999999999998</v>
+      </c>
+      <c r="G24">
+        <v>0.94010000000000005</v>
+      </c>
+      <c r="H24">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="I24">
+        <v>0.98809999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>64</v>
+      </c>
+      <c r="B25" s="10">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>0.92549999999999999</v>
+      </c>
+      <c r="D25">
+        <v>0.88029999999999997</v>
+      </c>
+      <c r="E25">
+        <v>0.9708</v>
+      </c>
+      <c r="F25">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="G25">
+        <v>0.92179999999999995</v>
+      </c>
+      <c r="H25">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="I25">
+        <v>0.98519999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>64</v>
+      </c>
+      <c r="B26" s="4">
+        <v>64</v>
+      </c>
+      <c r="C26">
+        <v>0.91930000000000001</v>
+      </c>
+      <c r="D26">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="E26">
+        <v>0.97430000000000005</v>
+      </c>
+      <c r="F26">
+        <v>0.9718</v>
+      </c>
+      <c r="G26">
+        <v>0.9143</v>
+      </c>
+      <c r="H26">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="I26">
+        <v>0.98529999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="21">
+        <v>64</v>
+      </c>
+      <c r="B27" s="21">
+        <v>128</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="21">
+        <v>64</v>
+      </c>
+      <c r="B28" s="21">
+        <v>256</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>128</v>
+      </c>
+      <c r="B30" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>128</v>
+      </c>
+      <c r="B31" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="21">
+        <v>128</v>
+      </c>
+      <c r="B32" s="22">
+        <v>32</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="21">
+        <v>128</v>
+      </c>
+      <c r="B33" s="21">
+        <v>64</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="21">
+        <v>128</v>
+      </c>
+      <c r="B34" s="21">
+        <v>128</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="21">
+        <v>128</v>
+      </c>
+      <c r="B35" s="21">
+        <v>256</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="21">
+        <v>256</v>
+      </c>
+      <c r="B37" s="21">
+        <v>8</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="21">
+        <v>256</v>
+      </c>
+      <c r="B38" s="21">
+        <v>16</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="21">
+        <v>256</v>
+      </c>
+      <c r="B39" s="22">
+        <v>32</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="21">
+        <v>256</v>
+      </c>
+      <c r="B40" s="21">
+        <v>64</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="21">
+        <v>256</v>
+      </c>
+      <c r="B41" s="21">
+        <v>128</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="21">
+        <v>256</v>
+      </c>
+      <c r="B42" s="21">
+        <v>256</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43">
+        <f>MAX(C2:C42)</f>
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ref="G43:I43" si="0">MAX(G2:G42)</f>
+        <v>0.94010000000000005</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>0.99029999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44">
+        <f>MIN(C2:C42)</f>
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ref="G44:I44" si="1">MIN(G2:G42)</f>
+        <v>0.90359999999999996</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7746,42 +9467,40 @@
       <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="45" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="34" t="s">
-        <v>33</v>
-      </c>
+      <c r="S1" s="48"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="34">
         <v>0.93930000000000002</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="35">
         <v>0.9194</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="35">
         <v>0.95889999999999997</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="35">
         <v>0.95750000000000002</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="35">
         <v>0.93769999999999998</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="35">
         <v>0.98440000000000005</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="36">
         <v>0.98380000000000001</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -7792,7 +9511,7 @@
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="37">
         <v>0.94350000000000001</v>
       </c>
       <c r="C3" s="4">
@@ -7810,7 +9529,7 @@
       <c r="G3" s="4">
         <v>0.98899999999999999</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="38">
         <v>0.98609999999999998</v>
       </c>
       <c r="I3" s="33" t="s">
@@ -7821,7 +9540,7 @@
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="37">
         <v>0.94869999999999999</v>
       </c>
       <c r="C4" s="10">
@@ -7839,7 +9558,7 @@
       <c r="G4" s="10">
         <v>0.98870000000000002</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="39">
         <v>0.98760000000000003</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -7850,7 +9569,7 @@
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="37">
         <v>0.93700000000000006</v>
       </c>
       <c r="C5" s="10">
@@ -7868,7 +9587,7 @@
       <c r="G5" s="4">
         <v>0.98770000000000002</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="38">
         <v>0.98680000000000001</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -7908,7 +9627,7 @@
       <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="46">
         <v>0.93179999999999996</v>
       </c>
       <c r="C7" s="4">
@@ -7926,7 +9645,7 @@
       <c r="G7" s="4">
         <v>0.98750000000000004</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="38">
         <v>0.98670000000000002</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -7935,886 +9654,35 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="41">
+        <v>37</v>
+      </c>
+      <c r="B8" s="40">
         <v>0.93930000000000002</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="41">
         <v>0.92949999999999999</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="41">
         <v>0.94899999999999995</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="41">
         <v>0.94810000000000005</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="41">
         <v>0.93840000000000001</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="41">
         <v>0.98540000000000005</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="42">
         <v>0.98480000000000001</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="C2">
-        <v>0.93020000000000003</v>
-      </c>
-      <c r="D2">
-        <v>0.89349999999999996</v>
-      </c>
-      <c r="E2">
-        <v>0.96789999999999998</v>
-      </c>
-      <c r="F2">
-        <v>0.96660000000000001</v>
-      </c>
-      <c r="G2">
-        <v>0.92710000000000004</v>
-      </c>
-      <c r="H2">
-        <v>0.98180000000000001</v>
-      </c>
-      <c r="I2">
-        <v>0.97899999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C3">
-        <v>0.9365</v>
-      </c>
-      <c r="D3">
-        <v>0.9214</v>
-      </c>
-      <c r="E3">
-        <v>0.95140000000000002</v>
-      </c>
-      <c r="F3">
-        <v>0.95</v>
-      </c>
-      <c r="G3">
-        <v>0.93489999999999995</v>
-      </c>
-      <c r="H3">
-        <v>0.98429999999999995</v>
-      </c>
-      <c r="I3">
-        <v>0.9728</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0.91849999999999998</v>
-      </c>
-      <c r="D4">
-        <v>0.85880000000000001</v>
-      </c>
-      <c r="E4">
-        <v>0.97889999999999999</v>
-      </c>
-      <c r="F4">
-        <v>0.97660000000000002</v>
-      </c>
-      <c r="G4">
-        <v>0.91310000000000002</v>
-      </c>
-      <c r="H4">
-        <v>0.98070000000000002</v>
-      </c>
-      <c r="I4">
-        <v>0.97230000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="D5">
-        <v>0.87909999999999999</v>
-      </c>
-      <c r="E5">
-        <v>0.96870000000000001</v>
-      </c>
-      <c r="F5">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="G5">
-        <v>0.91979999999999995</v>
-      </c>
-      <c r="H5">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="I5">
-        <v>0.98199999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>0.92110000000000003</v>
-      </c>
-      <c r="D6">
-        <v>0.86119999999999997</v>
-      </c>
-      <c r="E6">
-        <v>0.9798</v>
-      </c>
-      <c r="F6">
-        <v>0.9768</v>
-      </c>
-      <c r="G6">
-        <v>0.9153</v>
-      </c>
-      <c r="H6">
-        <v>0.98809999999999998</v>
-      </c>
-      <c r="I6">
-        <v>0.98829999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="C8">
-        <v>0.93020000000000003</v>
-      </c>
-      <c r="D8">
-        <v>0.89319999999999999</v>
-      </c>
-      <c r="E8">
-        <v>0.96719999999999995</v>
-      </c>
-      <c r="F8">
-        <v>0.96460000000000001</v>
-      </c>
-      <c r="G8">
-        <v>0.92749999999999999</v>
-      </c>
-      <c r="H8">
-        <v>0.98640000000000005</v>
-      </c>
-      <c r="I8">
-        <v>0.98680000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C9">
-        <v>0.93389999999999995</v>
-      </c>
-      <c r="D9">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="E9">
-        <v>0.97950000000000004</v>
-      </c>
-      <c r="F9">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="G9">
-        <v>0.93089999999999995</v>
-      </c>
-      <c r="H9">
-        <v>0.9899</v>
-      </c>
-      <c r="I9">
-        <v>0.99009999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0.93489999999999995</v>
-      </c>
-      <c r="D10">
-        <v>0.90010000000000001</v>
-      </c>
-      <c r="E10">
-        <v>0.96970000000000001</v>
-      </c>
-      <c r="F10">
-        <v>0.96840000000000004</v>
-      </c>
-      <c r="G10">
-        <v>0.93220000000000003</v>
-      </c>
-      <c r="H10">
-        <v>0.98740000000000006</v>
-      </c>
-      <c r="I10">
-        <v>0.98719999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B11" s="4">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>0.92789999999999995</v>
-      </c>
-      <c r="D11">
-        <v>0.88270000000000004</v>
-      </c>
-      <c r="E11">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="F11">
-        <v>0.97040000000000004</v>
-      </c>
-      <c r="G11">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="H11">
-        <v>0.98089999999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.9839</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B12" s="4">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>0.92530000000000001</v>
-      </c>
-      <c r="D12">
-        <v>0.87549999999999994</v>
-      </c>
-      <c r="E12">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="F12">
-        <v>0.97230000000000005</v>
-      </c>
-      <c r="G12">
-        <v>0.92120000000000002</v>
-      </c>
-      <c r="H12">
-        <v>0.98340000000000005</v>
-      </c>
-      <c r="I12">
-        <v>0.98129999999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="C14">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="D14">
-        <v>0.88109999999999999</v>
-      </c>
-      <c r="E14">
-        <v>0.96989999999999998</v>
-      </c>
-      <c r="F14">
-        <v>0.96679999999999999</v>
-      </c>
-      <c r="G14">
-        <v>0.92169999999999996</v>
-      </c>
-      <c r="H14">
-        <v>0.98580000000000001</v>
-      </c>
-      <c r="I14">
-        <v>0.98640000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C15">
-        <v>0.92269999999999996</v>
-      </c>
-      <c r="D15">
-        <v>0.86709999999999998</v>
-      </c>
-      <c r="E15">
-        <v>0.97809999999999997</v>
-      </c>
-      <c r="F15">
-        <v>0.97589999999999999</v>
-      </c>
-      <c r="G15">
-        <v>0.91749999999999998</v>
-      </c>
-      <c r="H15">
-        <v>0.98709999999999998</v>
-      </c>
-      <c r="I15">
-        <v>0.98509999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>1</v>
-      </c>
-      <c r="B16" s="10">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0.9224</v>
-      </c>
-      <c r="D16">
-        <v>0.87719999999999998</v>
-      </c>
-      <c r="E16">
-        <v>0.96779999999999999</v>
-      </c>
-      <c r="F16">
-        <v>0.96479999999999999</v>
-      </c>
-      <c r="G16">
-        <v>0.91830000000000001</v>
-      </c>
-      <c r="H16">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="I16">
-        <v>0.98709999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>0.91720000000000002</v>
-      </c>
-      <c r="D17">
-        <v>0.85970000000000002</v>
-      </c>
-      <c r="E17">
-        <v>0.97450000000000003</v>
-      </c>
-      <c r="F17">
-        <v>0.97130000000000005</v>
-      </c>
-      <c r="G17">
-        <v>0.91190000000000004</v>
-      </c>
-      <c r="H17">
-        <v>0.98229999999999995</v>
-      </c>
-      <c r="I17">
-        <v>0.98480000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>0.92630000000000001</v>
-      </c>
-      <c r="D18">
-        <v>0.88119999999999998</v>
-      </c>
-      <c r="E18">
-        <v>0.97209999999999996</v>
-      </c>
-      <c r="F18">
-        <v>0.97040000000000004</v>
-      </c>
-      <c r="G18">
-        <v>0.92330000000000001</v>
-      </c>
-      <c r="H18">
-        <v>0.98939999999999995</v>
-      </c>
-      <c r="I18">
-        <v>0.98980000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>2</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="C20">
-        <v>0.9365</v>
-      </c>
-      <c r="D20">
-        <v>0.89849999999999997</v>
-      </c>
-      <c r="E20">
-        <v>0.97409999999999997</v>
-      </c>
-      <c r="F20">
-        <v>0.97189999999999999</v>
-      </c>
-      <c r="G20">
-        <v>0.93340000000000001</v>
-      </c>
-      <c r="H20">
-        <v>0.98619999999999997</v>
-      </c>
-      <c r="I20">
-        <v>0.98770000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C21">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="D21">
-        <v>0.85919999999999996</v>
-      </c>
-      <c r="E21">
-        <v>0.97440000000000004</v>
-      </c>
-      <c r="F21">
-        <v>0.97119999999999995</v>
-      </c>
-      <c r="G21">
-        <v>0.91169999999999995</v>
-      </c>
-      <c r="H21">
-        <v>0.98719999999999997</v>
-      </c>
-      <c r="I21">
-        <v>0.98660000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>2</v>
-      </c>
-      <c r="B22" s="10">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0.92859999999999998</v>
-      </c>
-      <c r="D22">
-        <v>0.88660000000000005</v>
-      </c>
-      <c r="E22">
-        <v>0.97050000000000003</v>
-      </c>
-      <c r="F22">
-        <v>0.96760000000000002</v>
-      </c>
-      <c r="G22">
-        <v>0.92520000000000002</v>
-      </c>
-      <c r="H22">
-        <v>0.98270000000000002</v>
-      </c>
-      <c r="I22">
-        <v>0.98380000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>2</v>
-      </c>
-      <c r="B23" s="4">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="D23">
-        <v>0.87980000000000003</v>
-      </c>
-      <c r="E23">
-        <v>0.96960000000000002</v>
-      </c>
-      <c r="F23">
-        <v>0.96619999999999995</v>
-      </c>
-      <c r="G23">
-        <v>0.92069999999999996</v>
-      </c>
-      <c r="H23">
-        <v>0.98640000000000005</v>
-      </c>
-      <c r="I23">
-        <v>0.98499999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>2</v>
-      </c>
-      <c r="B24" s="4">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>0.9294</v>
-      </c>
-      <c r="D24">
-        <v>0.89690000000000003</v>
-      </c>
-      <c r="E24">
-        <v>0.96279999999999999</v>
-      </c>
-      <c r="F24">
-        <v>0.96140000000000003</v>
-      </c>
-      <c r="G24">
-        <v>0.9274</v>
-      </c>
-      <c r="H24">
-        <v>0.98660000000000003</v>
-      </c>
-      <c r="I24">
-        <v>0.98629999999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>4</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="C26">
-        <v>0.92759999999999998</v>
-      </c>
-      <c r="D26">
-        <v>0.88490000000000002</v>
-      </c>
-      <c r="E26">
-        <v>0.97040000000000004</v>
-      </c>
-      <c r="F26">
-        <v>0.96789999999999998</v>
-      </c>
-      <c r="G26">
-        <v>0.92410000000000003</v>
-      </c>
-      <c r="H26">
-        <v>0.98529999999999995</v>
-      </c>
-      <c r="I26">
-        <v>0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>4</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C27">
-        <v>0.9073</v>
-      </c>
-      <c r="D27">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="E27">
-        <v>0.97670000000000001</v>
-      </c>
-      <c r="F27">
-        <v>0.97260000000000002</v>
-      </c>
-      <c r="G27">
-        <v>0.89939999999999998</v>
-      </c>
-      <c r="H27">
-        <v>0.98719999999999997</v>
-      </c>
-      <c r="I27">
-        <v>0.97460000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>4</v>
-      </c>
-      <c r="B28" s="10">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0.94089999999999996</v>
-      </c>
-      <c r="D28">
-        <v>0.91879999999999995</v>
-      </c>
-      <c r="E28">
-        <v>0.96279999999999999</v>
-      </c>
-      <c r="F28">
-        <v>0.9607</v>
-      </c>
-      <c r="G28">
-        <v>0.93889999999999996</v>
-      </c>
-      <c r="H28">
-        <v>0.98540000000000005</v>
-      </c>
-      <c r="I28">
-        <v>0.98619999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>4</v>
-      </c>
-      <c r="B29" s="4">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>0.92210000000000003</v>
-      </c>
-      <c r="D29">
-        <v>0.86429999999999996</v>
-      </c>
-      <c r="E29">
-        <v>0.9798</v>
-      </c>
-      <c r="F29">
-        <v>0.97729999999999995</v>
-      </c>
-      <c r="G29">
-        <v>0.91659999999999997</v>
-      </c>
-      <c r="H29">
-        <v>0.9798</v>
-      </c>
-      <c r="I29">
-        <v>0.98380000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>4</v>
-      </c>
-      <c r="B30" s="4">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>0.92030000000000001</v>
-      </c>
-      <c r="D30">
-        <v>0.86890000000000001</v>
-      </c>
-      <c r="E30">
-        <v>0.97240000000000004</v>
-      </c>
-      <c r="F30">
-        <v>0.96950000000000003</v>
-      </c>
-      <c r="G30">
-        <v>0.91610000000000003</v>
-      </c>
-      <c r="H30">
-        <v>0.99</v>
-      </c>
-      <c r="I30">
-        <v>0.98950000000000005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32">
-        <f>MAX(C2:C30)</f>
-        <v>0.94089999999999996</v>
-      </c>
-      <c r="G32">
-        <f t="shared" ref="G32:I32" si="0">MAX(G2:G30)</f>
-        <v>0.93889999999999996</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="0"/>
-        <v>0.99009999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33">
-        <f>MIN(C2:C30)</f>
-        <v>0.9073</v>
-      </c>
-      <c r="G33">
-        <f t="shared" ref="G33:I33" si="1">MIN(G2:G30)</f>
-        <v>0.89939999999999998</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="1"/>
-        <v>0.9798</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="1"/>
-        <v>0.97230000000000005</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="18">
-        <f>AVERAGE(C2:C30)</f>
-        <v>0.92606000000000011</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18">
-        <f t="shared" ref="G34:I34" si="2">AVERAGE(G2:G30)</f>
-        <v>0.9220879999999998</v>
-      </c>
-      <c r="H34" s="18">
-        <f t="shared" si="2"/>
-        <v>0.98555999999999999</v>
-      </c>
-      <c r="I34" s="18">
-        <f t="shared" si="2"/>
-        <v>0.98429599999999962</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/results/Hyperparameter_Tuning/Graph_Embedding_SkipGNN.xlsx
+++ b/results/Hyperparameter_Tuning/Graph_Embedding_SkipGNN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="deepwalk" sheetId="16" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="SDNE" sheetId="13" r:id="rId6"/>
     <sheet name="VAE" sheetId="22" r:id="rId7"/>
     <sheet name="ripple2vec" sheetId="23" r:id="rId8"/>
-    <sheet name="Summary" sheetId="17" r:id="rId9"/>
-    <sheet name="node2vec_nw8_wl32" sheetId="21" r:id="rId10"/>
-    <sheet name="node2vec_nw128_wl8" sheetId="19" r:id="rId11"/>
+    <sheet name="n2v_plus_nw8_wl64" sheetId="24" r:id="rId9"/>
+    <sheet name="Summary" sheetId="17" r:id="rId10"/>
+    <sheet name="node2vec_nw8_wl32" sheetId="21" r:id="rId11"/>
+    <sheet name="node2vec_nw128_wl8" sheetId="19" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="38">
   <si>
     <t>Accuracy</t>
   </si>
@@ -368,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -430,7 +431,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -496,7 +496,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1290,7 +1289,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3354,6 +3352,269 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="47"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="34">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="C2" s="35">
+        <v>0.9194</v>
+      </c>
+      <c r="D2" s="35">
+        <v>0.95889999999999997</v>
+      </c>
+      <c r="E2" s="35">
+        <v>0.95750000000000002</v>
+      </c>
+      <c r="F2" s="35">
+        <v>0.93769999999999998</v>
+      </c>
+      <c r="G2" s="35">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="H2" s="36">
+        <v>0.98380000000000001</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="37">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.92049999999999998</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.94230000000000003</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="H3" s="38">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="37">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.92759999999999998</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.94710000000000005</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="H4" s="39">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="37">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.96189999999999998</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.96020000000000005</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.93510000000000004</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="H5" s="38">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="24">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0.9627</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0.94240000000000002</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0.93179999999999996</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.89990000000000003</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="H7" s="38">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="40">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="C8" s="41">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="D8" s="41">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="E8" s="41">
+        <v>0.94810000000000005</v>
+      </c>
+      <c r="F8" s="41">
+        <v>0.93840000000000001</v>
+      </c>
+      <c r="G8" s="41">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="H8" s="42">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4203,7 +4464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -8573,25 +8834,34 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
@@ -8619,803 +8889,820 @@
       <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="K2" s="4">
+        <v>8</v>
+      </c>
+      <c r="L2" s="4">
+        <v>8</v>
+      </c>
+      <c r="M2">
         <v>0.91149999999999998</v>
       </c>
-      <c r="D2">
+      <c r="N2">
         <v>0.84340000000000004</v>
       </c>
-      <c r="E2">
+      <c r="O2">
         <v>0.97789999999999999</v>
       </c>
-      <c r="F2">
+      <c r="P2">
         <v>0.9738</v>
       </c>
-      <c r="G2">
+      <c r="Q2">
         <v>0.90359999999999996</v>
       </c>
-      <c r="H2">
+      <c r="R2">
         <v>0.99</v>
       </c>
-      <c r="I2">
+      <c r="S2">
         <v>0.98939999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>8</v>
       </c>
       <c r="B3" s="4">
         <v>16</v>
       </c>
-      <c r="C3">
+      <c r="K3" s="4">
+        <v>8</v>
+      </c>
+      <c r="L3" s="4">
+        <v>16</v>
+      </c>
+      <c r="M3">
         <v>0.92710000000000004</v>
       </c>
-      <c r="D3">
+      <c r="N3">
         <v>0.88970000000000005</v>
       </c>
-      <c r="E3">
+      <c r="O3">
         <v>0.96509999999999996</v>
       </c>
-      <c r="F3">
+      <c r="P3">
         <v>0.96260000000000001</v>
       </c>
-      <c r="G3">
+      <c r="Q3">
         <v>0.92400000000000004</v>
       </c>
-      <c r="H3">
+      <c r="R3">
         <v>0.9879</v>
       </c>
-      <c r="I3">
+      <c r="S3">
         <v>0.98529999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>8</v>
       </c>
       <c r="B4" s="10">
         <v>32</v>
       </c>
-      <c r="C4">
+      <c r="K4" s="4">
+        <v>8</v>
+      </c>
+      <c r="L4" s="10">
+        <v>32</v>
+      </c>
+      <c r="M4">
         <v>0.93389999999999995</v>
       </c>
-      <c r="D4">
+      <c r="N4">
         <v>0.9093</v>
       </c>
-      <c r="E4">
+      <c r="O4">
         <v>0.95820000000000005</v>
       </c>
-      <c r="F4">
+      <c r="P4">
         <v>0.95660000000000001</v>
       </c>
-      <c r="G4">
+      <c r="Q4">
         <v>0.93200000000000005</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>0.98729999999999996</v>
       </c>
-      <c r="I4">
+      <c r="S4">
         <v>0.9869</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>8</v>
       </c>
       <c r="B5" s="10">
         <v>64</v>
       </c>
-      <c r="C5">
+      <c r="K5" s="10">
+        <v>8</v>
+      </c>
+      <c r="L5" s="10">
+        <v>64</v>
+      </c>
+      <c r="M5">
         <v>0.92789999999999995</v>
       </c>
-      <c r="D5">
+      <c r="N5">
         <v>0.88200000000000001</v>
       </c>
-      <c r="E5">
+      <c r="O5">
         <v>0.97350000000000003</v>
       </c>
-      <c r="F5">
+      <c r="P5">
         <v>0.97089999999999999</v>
       </c>
-      <c r="G5">
+      <c r="Q5">
         <v>0.92400000000000004</v>
       </c>
-      <c r="H5">
+      <c r="R5">
         <v>0.98760000000000003</v>
       </c>
-      <c r="I5">
+      <c r="S5">
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>8</v>
       </c>
       <c r="B6" s="4">
         <v>128</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="K6" s="21">
         <v>8</v>
       </c>
-      <c r="B7" s="21">
-        <v>256</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L6" s="21">
+        <v>128</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+      <c r="K8" s="4">
+        <v>16</v>
+      </c>
+      <c r="L8" s="4">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>0.92320000000000002</v>
+      </c>
+      <c r="N8">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="O8">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="P8">
+        <v>0.97350000000000003</v>
+      </c>
+      <c r="Q8">
+        <v>0.91879999999999995</v>
+      </c>
+      <c r="R8">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="S8">
+        <v>0.99029999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>16</v>
       </c>
       <c r="B9" s="4">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>0.92320000000000002</v>
-      </c>
-      <c r="D9">
-        <v>0.87019999999999997</v>
-      </c>
-      <c r="E9">
-        <v>0.97589999999999999</v>
-      </c>
-      <c r="F9">
-        <v>0.97350000000000003</v>
-      </c>
-      <c r="G9">
-        <v>0.91879999999999995</v>
-      </c>
-      <c r="H9">
-        <v>0.99009999999999998</v>
-      </c>
-      <c r="I9">
-        <v>0.99029999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="K9" s="4">
+        <v>16</v>
+      </c>
+      <c r="L9" s="4">
+        <v>16</v>
+      </c>
+      <c r="M9">
+        <v>0.92420000000000002</v>
+      </c>
+      <c r="N9">
+        <v>0.87229999999999996</v>
+      </c>
+      <c r="O9">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="P9">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="Q9">
+        <v>0.92020000000000002</v>
+      </c>
+      <c r="R9">
+        <v>0.9879</v>
+      </c>
+      <c r="S9">
+        <v>0.98570000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>16</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="10">
+        <v>32</v>
+      </c>
+      <c r="K10" s="4">
         <v>16</v>
       </c>
-      <c r="C10">
-        <v>0.92420000000000002</v>
-      </c>
-      <c r="D10">
-        <v>0.87229999999999996</v>
-      </c>
-      <c r="E10">
-        <v>0.97660000000000002</v>
-      </c>
-      <c r="F10">
-        <v>0.97409999999999997</v>
-      </c>
-      <c r="G10">
-        <v>0.92020000000000002</v>
-      </c>
-      <c r="H10">
-        <v>0.9879</v>
-      </c>
-      <c r="I10">
-        <v>0.98570000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L10" s="10">
+        <v>32</v>
+      </c>
+      <c r="M10">
+        <v>0.92859999999999998</v>
+      </c>
+      <c r="N10">
+        <v>0.88939999999999997</v>
+      </c>
+      <c r="O10">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="P10">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="Q10">
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="R10">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="S10">
+        <v>0.98880000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>16</v>
       </c>
-      <c r="B11" s="10">
-        <v>32</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="4">
+        <v>64</v>
+      </c>
+      <c r="K11" s="4">
+        <v>16</v>
+      </c>
+      <c r="L11" s="4">
+        <v>64</v>
+      </c>
+      <c r="M11">
         <v>0.92859999999999998</v>
       </c>
-      <c r="D11">
-        <v>0.88939999999999997</v>
-      </c>
-      <c r="E11">
-        <v>0.96689999999999998</v>
-      </c>
-      <c r="F11">
-        <v>0.96389999999999998</v>
-      </c>
-      <c r="G11">
-        <v>0.92469999999999997</v>
-      </c>
-      <c r="H11">
-        <v>0.98939999999999995</v>
-      </c>
-      <c r="I11">
-        <v>0.98880000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>0.8871</v>
+      </c>
+      <c r="O11">
+        <v>0.96989999999999998</v>
+      </c>
+      <c r="P11">
+        <v>0.96730000000000005</v>
+      </c>
+      <c r="Q11">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="R11">
+        <v>0.99</v>
+      </c>
+      <c r="S11">
+        <v>0.9899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>16</v>
       </c>
       <c r="B12" s="4">
-        <v>64</v>
-      </c>
-      <c r="C12">
-        <v>0.92859999999999998</v>
-      </c>
-      <c r="D12">
-        <v>0.8871</v>
-      </c>
-      <c r="E12">
-        <v>0.96989999999999998</v>
-      </c>
-      <c r="F12">
-        <v>0.96730000000000005</v>
-      </c>
-      <c r="G12">
-        <v>0.92510000000000003</v>
-      </c>
-      <c r="H12">
-        <v>0.99</v>
-      </c>
-      <c r="I12">
-        <v>0.9899</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+        <v>128</v>
+      </c>
+      <c r="K12" s="21">
         <v>16</v>
       </c>
-      <c r="B13" s="4">
+      <c r="L12" s="21">
         <v>128</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>32</v>
+      </c>
+      <c r="B14" s="4">
+        <v>8</v>
+      </c>
+      <c r="K14" s="4">
+        <v>32</v>
+      </c>
+      <c r="L14" s="4">
+        <v>8</v>
+      </c>
+      <c r="M14">
+        <v>0.92269999999999996</v>
+      </c>
+      <c r="N14">
+        <v>0.872</v>
+      </c>
+      <c r="O14">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="P14">
+        <v>0.97060000000000002</v>
+      </c>
+      <c r="Q14">
+        <v>0.91839999999999999</v>
+      </c>
+      <c r="R14">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="S14">
+        <v>0.98970000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4">
         <v>16</v>
       </c>
-      <c r="B14" s="21">
-        <v>256</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15" s="4">
+        <v>32</v>
+      </c>
+      <c r="L15" s="4">
+        <v>16</v>
+      </c>
+      <c r="M15">
+        <v>0.91559999999999997</v>
+      </c>
+      <c r="N15">
+        <v>0.85619999999999996</v>
+      </c>
+      <c r="O15">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="P15">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="Q15">
+        <v>0.91</v>
+      </c>
+      <c r="R15">
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="S15">
+        <v>0.98550000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>32</v>
       </c>
-      <c r="B16" s="4">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>0.92269999999999996</v>
-      </c>
-      <c r="D16">
-        <v>0.872</v>
-      </c>
-      <c r="E16">
-        <v>0.97340000000000004</v>
-      </c>
-      <c r="F16">
-        <v>0.97060000000000002</v>
-      </c>
-      <c r="G16">
-        <v>0.91839999999999999</v>
-      </c>
-      <c r="H16">
-        <v>0.99029999999999996</v>
-      </c>
-      <c r="I16">
-        <v>0.98970000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
+        <v>32</v>
+      </c>
+      <c r="K16" s="4">
+        <v>32</v>
+      </c>
+      <c r="L16" s="10">
+        <v>32</v>
+      </c>
+      <c r="M16">
+        <v>0.9234</v>
+      </c>
+      <c r="N16">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="O16">
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="P16">
+        <v>0.97489999999999999</v>
+      </c>
+      <c r="Q16">
+        <v>0.91890000000000005</v>
+      </c>
+      <c r="R16">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="S16">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>32</v>
       </c>
       <c r="B17" s="4">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>0.91559999999999997</v>
-      </c>
-      <c r="D17">
-        <v>0.85619999999999996</v>
-      </c>
-      <c r="E17">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="F17">
-        <v>0.97160000000000002</v>
-      </c>
-      <c r="G17">
-        <v>0.91</v>
-      </c>
-      <c r="H17">
-        <v>0.98950000000000005</v>
-      </c>
-      <c r="I17">
-        <v>0.98550000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="K17" s="4">
+        <v>32</v>
+      </c>
+      <c r="L17" s="4">
+        <v>64</v>
+      </c>
+      <c r="M17">
+        <v>0.93589999999999995</v>
+      </c>
+      <c r="N17">
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="O17">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="P17">
+        <v>0.96340000000000003</v>
+      </c>
+      <c r="Q17">
+        <v>0.93379999999999996</v>
+      </c>
+      <c r="R17">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="S17">
+        <v>0.98619999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>32</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="4">
+        <v>128</v>
+      </c>
+      <c r="K18" s="21">
         <v>32</v>
       </c>
-      <c r="C18">
-        <v>0.9234</v>
-      </c>
-      <c r="D18">
-        <v>0.87009999999999998</v>
-      </c>
-      <c r="E18">
-        <v>0.97689999999999999</v>
-      </c>
-      <c r="F18">
-        <v>0.97489999999999999</v>
-      </c>
-      <c r="G18">
-        <v>0.91890000000000005</v>
-      </c>
-      <c r="H18">
-        <v>0.98089999999999999</v>
-      </c>
-      <c r="I18">
-        <v>0.98399999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="L18" s="21">
+        <v>128</v>
+      </c>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>64</v>
+      </c>
+      <c r="B20" s="4">
+        <v>8</v>
+      </c>
+      <c r="K20" s="4">
+        <v>64</v>
+      </c>
+      <c r="L20" s="4">
+        <v>8</v>
+      </c>
+      <c r="M20">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="N20">
+        <v>0.8468</v>
+      </c>
+      <c r="O20">
+        <v>0.97370000000000001</v>
+      </c>
+      <c r="P20">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="Q20">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="R20">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="S20">
+        <v>0.98680000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>64</v>
+      </c>
+      <c r="B21" s="4">
+        <v>16</v>
+      </c>
+      <c r="K21" s="4">
+        <v>64</v>
+      </c>
+      <c r="L21" s="4">
+        <v>16</v>
+      </c>
+      <c r="M21">
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="N21">
+        <v>0.91710000000000003</v>
+      </c>
+      <c r="O21">
+        <v>0.96589999999999998</v>
+      </c>
+      <c r="P21">
+        <v>0.96489999999999998</v>
+      </c>
+      <c r="Q21">
+        <v>0.94010000000000005</v>
+      </c>
+      <c r="R21">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="S21">
+        <v>0.98809999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>64</v>
+      </c>
+      <c r="B22" s="10">
         <v>32</v>
       </c>
-      <c r="B19" s="4">
+      <c r="K22" s="4">
         <v>64</v>
       </c>
-      <c r="C19">
-        <v>0.93589999999999995</v>
-      </c>
-      <c r="D19">
-        <v>0.90759999999999996</v>
-      </c>
-      <c r="E19">
-        <v>0.96430000000000005</v>
-      </c>
-      <c r="F19">
-        <v>0.96340000000000003</v>
-      </c>
-      <c r="G19">
-        <v>0.93379999999999996</v>
-      </c>
-      <c r="H19">
-        <v>0.98819999999999997</v>
-      </c>
-      <c r="I19">
-        <v>0.98619999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
+      <c r="L22" s="10">
         <v>32</v>
       </c>
-      <c r="B20" s="21">
-        <v>128</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
-        <v>32</v>
-      </c>
-      <c r="B21" s="21">
-        <v>256</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>0.92549999999999999</v>
+      </c>
+      <c r="N22">
+        <v>0.88029999999999997</v>
+      </c>
+      <c r="O22">
+        <v>0.9708</v>
+      </c>
+      <c r="P22">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="Q22">
+        <v>0.92179999999999995</v>
+      </c>
+      <c r="R22">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="S22">
+        <v>0.98519999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>64</v>
       </c>
       <c r="B23" s="4">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>0.90959999999999996</v>
-      </c>
-      <c r="D23">
-        <v>0.8468</v>
-      </c>
-      <c r="E23">
-        <v>0.97370000000000001</v>
-      </c>
-      <c r="F23">
-        <v>0.97050000000000003</v>
-      </c>
-      <c r="G23">
-        <v>0.90439999999999998</v>
-      </c>
-      <c r="H23">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="I23">
-        <v>0.98680000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="K23" s="4">
+        <v>64</v>
+      </c>
+      <c r="L23" s="4">
+        <v>64</v>
+      </c>
+      <c r="M23">
+        <v>0.91930000000000001</v>
+      </c>
+      <c r="N23">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="O23">
+        <v>0.97430000000000005</v>
+      </c>
+      <c r="P23">
+        <v>0.9718</v>
+      </c>
+      <c r="Q23">
+        <v>0.9143</v>
+      </c>
+      <c r="R23">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="S23">
+        <v>0.98529999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>64</v>
       </c>
       <c r="B24" s="4">
+        <v>128</v>
+      </c>
+      <c r="K24" s="21">
+        <v>64</v>
+      </c>
+      <c r="L24" s="21">
+        <v>128</v>
+      </c>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>128</v>
+      </c>
+      <c r="B26" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>128</v>
+      </c>
+      <c r="B27" s="4">
         <v>16</v>
       </c>
-      <c r="C24">
-        <v>0.94140000000000001</v>
-      </c>
-      <c r="D24">
-        <v>0.91710000000000003</v>
-      </c>
-      <c r="E24">
-        <v>0.96589999999999998</v>
-      </c>
-      <c r="F24">
-        <v>0.96489999999999998</v>
-      </c>
-      <c r="G24">
-        <v>0.94010000000000005</v>
-      </c>
-      <c r="H24">
-        <v>0.98829999999999996</v>
-      </c>
-      <c r="I24">
-        <v>0.98809999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>128</v>
+      </c>
+      <c r="B28" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>128</v>
+      </c>
+      <c r="B29" s="4">
         <v>64</v>
       </c>
-      <c r="B25" s="10">
-        <v>32</v>
-      </c>
-      <c r="C25">
-        <v>0.92549999999999999</v>
-      </c>
-      <c r="D25">
-        <v>0.88029999999999997</v>
-      </c>
-      <c r="E25">
-        <v>0.9708</v>
-      </c>
-      <c r="F25">
-        <v>0.96779999999999999</v>
-      </c>
-      <c r="G25">
-        <v>0.92179999999999995</v>
-      </c>
-      <c r="H25">
-        <v>0.98660000000000003</v>
-      </c>
-      <c r="I25">
-        <v>0.98519999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>64</v>
-      </c>
-      <c r="B26" s="4">
-        <v>64</v>
-      </c>
-      <c r="C26">
-        <v>0.91930000000000001</v>
-      </c>
-      <c r="D26">
-        <v>0.86419999999999997</v>
-      </c>
-      <c r="E26">
-        <v>0.97430000000000005</v>
-      </c>
-      <c r="F26">
-        <v>0.9718</v>
-      </c>
-      <c r="G26">
-        <v>0.9143</v>
-      </c>
-      <c r="H26">
-        <v>0.98509999999999998</v>
-      </c>
-      <c r="I26">
-        <v>0.98529999999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
-        <v>64</v>
-      </c>
-      <c r="B27" s="21">
-        <v>128</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
-        <v>64</v>
-      </c>
-      <c r="B28" s="21">
-        <v>256</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>128</v>
       </c>
       <c r="B30" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
         <v>128</v>
       </c>
-      <c r="B31" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="21">
-        <v>128</v>
-      </c>
-      <c r="B32" s="22">
-        <v>32</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="21">
-        <v>128</v>
-      </c>
-      <c r="B33" s="21">
-        <v>64</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="21">
-        <v>128</v>
-      </c>
-      <c r="B34" s="21">
-        <v>128</v>
-      </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="21">
-        <v>128</v>
-      </c>
-      <c r="B35" s="21">
-        <v>256</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="21">
-        <v>256</v>
-      </c>
-      <c r="B37" s="21">
-        <v>8</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
-        <v>256</v>
-      </c>
-      <c r="B38" s="21">
-        <v>16</v>
-      </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="21">
-        <v>256</v>
-      </c>
-      <c r="B39" s="22">
-        <v>32</v>
-      </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="21">
-        <v>256</v>
-      </c>
-      <c r="B40" s="21">
-        <v>64</v>
-      </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="21">
-        <v>256</v>
-      </c>
-      <c r="B41" s="21">
-        <v>128</v>
-      </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="21">
-        <v>256</v>
-      </c>
-      <c r="B42" s="21">
-        <v>256</v>
-      </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="7" t="s">
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C43">
-        <f>MAX(C2:C42)</f>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" s="3">
+        <f>MAX(M2:M31)</f>
         <v>0.94140000000000001</v>
       </c>
-      <c r="G43">
-        <f t="shared" ref="G43:I43" si="0">MAX(G2:G42)</f>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3">
+        <f>MAX(Q2:Q31)</f>
         <v>0.94010000000000005</v>
       </c>
-      <c r="H43">
-        <f t="shared" si="0"/>
+      <c r="R32" s="3">
+        <f>MAX(R2:R31)</f>
         <v>0.99029999999999996</v>
       </c>
-      <c r="I43">
-        <f t="shared" si="0"/>
+      <c r="S32" s="3">
+        <f>MAX(S2:S31)</f>
         <v>0.99029999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="47" t="s">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C44">
-        <f>MIN(C2:C42)</f>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="3">
+        <f>MIN(M2:M31)</f>
         <v>0.90959999999999996</v>
       </c>
-      <c r="G44">
-        <f t="shared" ref="G44:I44" si="1">MIN(G2:G42)</f>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3">
+        <f>MIN(Q2:Q31)</f>
         <v>0.90359999999999996</v>
       </c>
-      <c r="H44">
-        <f t="shared" si="1"/>
+      <c r="R33" s="3">
+        <f>MIN(R2:R31)</f>
         <v>0.98089999999999999</v>
       </c>
-      <c r="I44">
-        <f t="shared" si="1"/>
+      <c r="S33" s="3">
+        <f>MIN(S2:S31)</f>
         <v>0.98399999999999999</v>
       </c>
     </row>
@@ -9426,263 +9713,254 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="48"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="34">
-        <v>0.93930000000000002</v>
-      </c>
-      <c r="C2" s="35">
-        <v>0.9194</v>
-      </c>
-      <c r="D2" s="35">
-        <v>0.95889999999999997</v>
-      </c>
-      <c r="E2" s="35">
-        <v>0.95750000000000002</v>
-      </c>
-      <c r="F2" s="35">
-        <v>0.93769999999999998</v>
-      </c>
-      <c r="G2" s="35">
-        <v>0.98440000000000005</v>
-      </c>
-      <c r="H2" s="36">
-        <v>0.98380000000000001</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="37">
-        <v>0.94350000000000001</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.92049999999999998</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.94230000000000003</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="H3" s="38">
-        <v>0.98609999999999998</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="37">
-        <v>0.94869999999999999</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.92759999999999998</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.96919999999999995</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.94710000000000005</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.98870000000000002</v>
-      </c>
-      <c r="H4" s="39">
-        <v>0.98760000000000003</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="37">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.91180000000000005</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.96189999999999998</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.96020000000000005</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.93510000000000004</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.98770000000000002</v>
-      </c>
-      <c r="H5" s="38">
-        <v>0.98680000000000001</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="24">
-        <v>0.94350000000000001</v>
-      </c>
-      <c r="C6" s="23">
-        <v>0.92410000000000003</v>
-      </c>
-      <c r="D6" s="23">
-        <v>0.9627</v>
-      </c>
-      <c r="E6" s="23">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="F6" s="23">
-        <v>0.94240000000000002</v>
-      </c>
-      <c r="G6" s="23">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="H6" s="25">
-        <v>0.98839999999999995</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="46">
-        <v>0.93179999999999996</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.89990000000000003</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.96389999999999998</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.92920000000000003</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="H7" s="38">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="40">
-        <v>0.93930000000000002</v>
-      </c>
-      <c r="C8" s="41">
-        <v>0.92949999999999999</v>
-      </c>
-      <c r="D8" s="41">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="E8" s="41">
-        <v>0.94810000000000005</v>
-      </c>
-      <c r="F8" s="41">
-        <v>0.93840000000000001</v>
-      </c>
-      <c r="G8" s="41">
-        <v>0.98540000000000005</v>
-      </c>
-      <c r="H8" s="42">
-        <v>0.98480000000000001</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>36</v>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.25</v>
+      </c>
+      <c r="B2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.25</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.25</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.25</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.25</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.5</v>
+      </c>
+      <c r="B8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.5</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.5</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.5</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/Hyperparameter_Tuning/Graph_Embedding_SkipGNN.xlsx
+++ b/results/Hyperparameter_Tuning/Graph_Embedding_SkipGNN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="deepwalk" sheetId="16" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="LINE" sheetId="12" r:id="rId4"/>
     <sheet name="GraRep" sheetId="18" r:id="rId5"/>
     <sheet name="SDNE" sheetId="13" r:id="rId6"/>
-    <sheet name="VAE" sheetId="22" r:id="rId7"/>
+    <sheet name="VGAE" sheetId="22" r:id="rId7"/>
     <sheet name="ripple2vec" sheetId="23" r:id="rId8"/>
     <sheet name="n2v_plus_nw8_wl64" sheetId="24" r:id="rId9"/>
     <sheet name="Summary" sheetId="17" r:id="rId10"/>
-    <sheet name="node2vec_nw8_wl32" sheetId="21" r:id="rId11"/>
-    <sheet name="node2vec_nw128_wl8" sheetId="19" r:id="rId12"/>
+    <sheet name="node2vec_nw8_wl32" sheetId="21" state="hidden" r:id="rId11"/>
+    <sheet name="node2vec_nw128_wl8" sheetId="19" state="hidden" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="42">
   <si>
     <t>Accuracy</t>
   </si>
@@ -128,13 +128,7 @@
 p=0.5, q=0.25</t>
   </si>
   <si>
-    <t>epochs=15</t>
-  </si>
-  <si>
     <t>ksteps=1</t>
-  </si>
-  <si>
-    <t>Skip-GNN</t>
   </si>
   <si>
     <t>hidden1</t>
@@ -149,7 +143,25 @@
     <t>hidden1=16, hidden2=8</t>
   </si>
   <si>
-    <t>VAE</t>
+    <t>ripple2vec</t>
+  </si>
+  <si>
+    <t>node2vec+</t>
+  </si>
+  <si>
+    <t>Order 3</t>
+  </si>
+  <si>
+    <t>Order 2</t>
+  </si>
+  <si>
+    <t>VGAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_walks = 8 , walk_length = 64 </t>
+  </si>
+  <si>
+    <t>order=3, epochs=20</t>
   </si>
 </sst>
 </file>
@@ -186,7 +198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,8 +247,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -259,117 +277,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -390,9 +302,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -402,8 +311,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -414,24 +321,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,8 +345,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFCCECFF"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
@@ -454,1483 +359,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-SG"/>
-              <a:t>Skip-GNN</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Deepwalk</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Summary!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sensitivity</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Specificity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>F1-Score</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ROC-AUC</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PR-AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$B$2:$H$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.93930000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9194</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95889999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.95750000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.93769999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98440000000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.98380000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7FE1-4722-8A7C-02CC6180E72E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>node2vec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Summary!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sensitivity</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Specificity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>F1-Score</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ROC-AUC</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PR-AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$B$3:$H$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.94350000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.92049999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96699999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.96599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.94230000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.98609999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7FE1-4722-8A7C-02CC6180E72E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>struc2vec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Summary!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sensitivity</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Specificity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>F1-Score</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ROC-AUC</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PR-AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$B$4:$H$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.94869999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.92759999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96919999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.96799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.94710000000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98870000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.98760000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7FE1-4722-8A7C-02CC6180E72E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LINE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Summary!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sensitivity</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Specificity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>F1-Score</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ROC-AUC</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PR-AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$B$5:$H$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.93700000000000006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.91180000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96189999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.96020000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.93510000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98770000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.98680000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7FE1-4722-8A7C-02CC6180E72E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SDNE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Summary!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sensitivity</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Specificity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>F1-Score</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ROC-AUC</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PR-AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$B$6:$H$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.94350000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.92410000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9627</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.96199999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.94240000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.98839999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7FE1-4722-8A7C-02CC6180E72E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GraRep</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Summary!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sensitivity</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Specificity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>F1-Score</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ROC-AUC</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PR-AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$B$7:$H$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.93179999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.89990000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96389999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.96199999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.92920000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98750000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.98670000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7FE1-4722-8A7C-02CC6180E72E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VAE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Summary!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sensitivity</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Specificity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>F1-Score</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ROC-AUC</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PR-AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$B$8:$H$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.93930000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.92949999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94899999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.94810000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.93840000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98540000000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.98480000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-7FE1-4722-8A7C-02CC6180E72E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1760142800"/>
-        <c:axId val="1760143632"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1760142800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1760143632"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1760143632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1760142800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2303,60 +731,60 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+      <c r="A4" s="26">
         <v>8</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="24">
         <v>32</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="25">
         <v>0.92500000000000004</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="25">
         <v>0.87609999999999999</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="25">
         <v>0.97529999999999994</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="25">
         <v>0.97330000000000005</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="25">
         <v>0.92169999999999996</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="25">
         <v>0.98819999999999997</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="25">
         <v>0.98919999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
+      <c r="A5" s="24">
         <v>8</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="24">
         <v>64</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="25">
         <v>0.91220000000000001</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="25">
         <v>0.85260000000000002</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="25">
         <v>0.97060000000000002</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="25">
         <v>0.96619999999999995</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="25">
         <v>0.90559999999999996</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="25">
         <v>0.98660000000000003</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="25">
         <v>0.98580000000000001</v>
       </c>
     </row>
@@ -2657,25 +1085,25 @@
       <c r="B16" s="10">
         <v>32</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <v>0.9294</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <v>0.88560000000000005</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <v>0.9738</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="17">
         <v>0.97160000000000002</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="17">
         <v>0.92649999999999999</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="18">
         <v>0.99029999999999996</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="18">
         <v>0.99</v>
       </c>
     </row>
@@ -2947,25 +1375,25 @@
       <c r="B26" s="4">
         <v>8</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="18">
         <v>0.93930000000000002</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="17">
         <v>0.9194</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="17">
         <v>0.95889999999999997</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="17">
         <v>0.95750000000000002</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="17">
         <v>0.93769999999999998</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="17">
         <v>0.98440000000000005</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="17">
         <v>0.98380000000000001</v>
       </c>
     </row>
@@ -3352,22 +1780,22 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3393,40 +1821,38 @@
       <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="47"/>
+      <c r="K1" s="37"/>
+      <c r="S1" s="32"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="39">
         <v>0.93930000000000002</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="39">
         <v>0.9194</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="39">
         <v>0.95889999999999997</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="39">
         <v>0.95750000000000002</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="39">
         <v>0.93769999999999998</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="39">
         <v>0.98440000000000005</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="39">
         <v>0.98380000000000001</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -3437,28 +1863,28 @@
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="40">
         <v>0.94350000000000001</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>0.92049999999999998</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>0.96699999999999997</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>0.96599999999999997</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>0.94230000000000003</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>0.98899999999999999</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="2">
         <v>0.98609999999999998</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="30" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3466,25 +1892,25 @@
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="40">
         <v>0.94869999999999999</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="40">
         <v>0.92759999999999998</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="40">
         <v>0.96919999999999995</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="40">
         <v>0.96799999999999997</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="40">
         <v>0.94710000000000005</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="40">
         <v>0.98870000000000002</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="40">
         <v>0.98760000000000003</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -3495,54 +1921,54 @@
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="37">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.91180000000000005</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.96189999999999998</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.96020000000000005</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.93510000000000004</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.98770000000000002</v>
-      </c>
-      <c r="H5" s="38">
-        <v>0.98680000000000001</v>
+      <c r="B5" s="40">
+        <v>0.94110000000000005</v>
+      </c>
+      <c r="C5" s="40">
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="D5" s="40">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="E5" s="40">
+        <v>0.95930000000000004</v>
+      </c>
+      <c r="F5" s="40">
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.98550000000000004</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="39">
         <v>0.94350000000000001</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="39">
         <v>0.92410000000000003</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="39">
         <v>0.9627</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="39">
         <v>0.96199999999999997</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="39">
         <v>0.94240000000000002</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="39">
         <v>0.98899999999999999</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="39">
         <v>0.98839999999999995</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -3553,63 +1979,106 @@
       <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="2">
         <v>0.93179999999999996</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>0.89990000000000003</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>0.96389999999999998</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>0.96199999999999997</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>0.92920000000000003</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>0.98750000000000004</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="2">
         <v>0.98670000000000002</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="40">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2">
         <v>0.93930000000000002</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="2">
         <v>0.92949999999999999</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="2">
         <v>0.94899999999999995</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="2">
         <v>0.94810000000000005</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="2">
         <v>0.93840000000000001</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="2">
         <v>0.98540000000000005</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="2">
         <v>0.98480000000000001</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="40">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="C9" s="40">
+        <v>0.91059999999999997</v>
+      </c>
+      <c r="D9" s="40">
+        <v>0.96550000000000002</v>
+      </c>
+      <c r="E9" s="40">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="F9" s="40">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="G9" s="40">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="H9" s="40">
+        <v>0.98260000000000003</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>36</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="41" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4436,25 +2905,25 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="17">
         <f>AVERAGE(C2:C30)</f>
         <v>0.92606000000000011</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18">
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17">
         <f t="shared" ref="G34:I34" si="2">AVERAGE(G2:G30)</f>
         <v>0.9220879999999998</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="17">
         <f t="shared" si="2"/>
         <v>0.98555999999999999</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="17">
         <f t="shared" si="2"/>
         <v>0.98429599999999962</v>
       </c>
@@ -4469,7 +2938,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5330,25 +3799,25 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="17">
         <f>AVERAGE(C2:C30)</f>
         <v>0.91816399999999998</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18">
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17">
         <f t="shared" ref="G34:I34" si="0">AVERAGE(G2:G30)</f>
         <v>0.91635200000000017</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="17">
         <f t="shared" si="0"/>
         <v>0.98315999999999992</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="17">
         <f t="shared" si="0"/>
         <v>0.98226000000000013</v>
       </c>
@@ -5559,31 +4028,31 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="A8" s="27">
         <v>0.5</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="27">
         <v>0.25</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="28">
         <v>0.94350000000000001</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="29">
         <v>0.92049999999999998</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="29">
         <v>0.96699999999999997</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="29">
         <v>0.96599999999999997</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="29">
         <v>0.94230000000000003</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="29">
         <v>0.98899999999999999</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="29">
         <v>0.98609999999999998</v>
       </c>
     </row>
@@ -6225,25 +4694,25 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="17">
         <f>AVERAGE(C2:C30)</f>
         <v>0.9270440000000002</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18">
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17">
         <f t="shared" ref="G34:I34" si="0">AVERAGE(G2:G30)</f>
         <v>0.92355599999999993</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="17">
         <f t="shared" si="0"/>
         <v>0.98767199999999999</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="17">
         <f t="shared" si="0"/>
         <v>0.986348</v>
       </c>
@@ -6481,10 +4950,10 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="20"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -7005,19 +5474,19 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
+      <c r="A28" s="20">
         <v>64</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="20">
         <v>256</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -7147,34 +5616,34 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="21">
+      <c r="A34" s="20">
         <v>128</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="20">
         <v>128</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="21">
+      <c r="A35" s="20">
         <v>128</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="20">
         <v>256</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
@@ -7275,64 +5744,64 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="21">
+      <c r="A40" s="20">
         <v>256</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="20">
         <v>64</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="21">
+      <c r="A41" s="20">
         <v>256</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B41" s="20">
         <v>128</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="21">
+      <c r="A42" s="20">
         <v>256</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="20">
         <v>256</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="2">
@@ -7356,7 +5825,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C45" s="3">
@@ -7387,366 +5856,761 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="B19" sqref="B19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="J2" s="19">
+        <v>5</v>
+      </c>
+      <c r="K2">
         <v>0.9214</v>
       </c>
-      <c r="C2">
+      <c r="L2">
         <v>0.86599999999999999</v>
       </c>
-      <c r="D2">
+      <c r="M2">
         <v>0.97619999999999996</v>
       </c>
-      <c r="E2">
+      <c r="N2">
         <v>0.97309999999999997</v>
       </c>
-      <c r="F2">
+      <c r="O2">
         <v>0.91610000000000003</v>
       </c>
-      <c r="G2">
+      <c r="P2">
         <v>0.99070000000000003</v>
       </c>
-      <c r="H2">
+      <c r="Q2">
         <v>0.99009999999999998</v>
       </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="K3">
         <v>0.91949999999999998</v>
       </c>
-      <c r="C3">
+      <c r="L3">
         <v>0.86299999999999999</v>
       </c>
-      <c r="D3">
+      <c r="M3">
         <v>0.97519999999999996</v>
       </c>
-      <c r="E3">
+      <c r="N3">
         <v>0.97170000000000001</v>
       </c>
-      <c r="F3">
+      <c r="O3">
         <v>0.91400000000000003</v>
       </c>
-      <c r="G3">
+      <c r="P3">
         <v>0.99060000000000004</v>
       </c>
-      <c r="H3">
+      <c r="Q3">
         <v>0.99</v>
       </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>10</v>
+      </c>
+      <c r="J4" s="27">
         <v>15</v>
       </c>
-      <c r="B4" s="31">
+      <c r="K4" s="28">
         <v>0.93700000000000006</v>
       </c>
-      <c r="C4" s="32">
+      <c r="L4" s="29">
         <v>0.91180000000000005</v>
       </c>
-      <c r="D4" s="32">
+      <c r="M4" s="29">
         <v>0.96189999999999998</v>
       </c>
-      <c r="E4" s="32">
+      <c r="N4" s="29">
         <v>0.96020000000000005</v>
       </c>
-      <c r="F4" s="31">
+      <c r="O4" s="28">
         <v>0.93510000000000004</v>
       </c>
-      <c r="G4" s="32">
+      <c r="P4" s="29">
         <v>0.98770000000000002</v>
       </c>
-      <c r="H4" s="32">
+      <c r="Q4" s="29">
         <v>0.98680000000000001</v>
       </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4">
         <v>20</v>
       </c>
-      <c r="B5">
+      <c r="K5">
         <v>0.92530000000000001</v>
       </c>
-      <c r="C5">
+      <c r="L5">
         <v>0.88160000000000005</v>
       </c>
-      <c r="D5">
+      <c r="M5">
         <v>0.96909999999999996</v>
       </c>
-      <c r="E5">
+      <c r="N5">
         <v>0.96660000000000001</v>
       </c>
-      <c r="F5">
+      <c r="O5">
         <v>0.92190000000000005</v>
       </c>
-      <c r="G5">
+      <c r="P5">
         <v>0.98919999999999997</v>
       </c>
-      <c r="H5">
+      <c r="Q5">
         <v>0.98880000000000001</v>
       </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
+        <v>20</v>
+      </c>
+      <c r="J6" s="4">
         <v>25</v>
       </c>
-      <c r="B6">
+      <c r="K6">
         <v>0.92789999999999995</v>
       </c>
-      <c r="C6">
+      <c r="L6">
         <v>0.87860000000000005</v>
       </c>
-      <c r="D6">
+      <c r="M6">
         <v>0.97709999999999997</v>
       </c>
-      <c r="E6">
+      <c r="N6">
         <v>0.9748</v>
       </c>
-      <c r="F6">
+      <c r="O6">
         <v>0.92400000000000004</v>
       </c>
-      <c r="G6" s="12">
+      <c r="P6" s="12">
         <v>0.99160000000000004</v>
       </c>
-      <c r="H6" s="12">
+      <c r="Q6" s="12">
         <v>0.99129999999999996</v>
       </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
+        <v>25</v>
+      </c>
+      <c r="J7" s="4">
         <v>30</v>
       </c>
-      <c r="B7">
+      <c r="K7">
         <v>0.92710000000000004</v>
       </c>
-      <c r="C7">
+      <c r="L7">
         <v>0.8881</v>
       </c>
-      <c r="D7">
+      <c r="M7">
         <v>0.96519999999999995</v>
       </c>
-      <c r="E7">
+      <c r="N7">
         <v>0.9627</v>
       </c>
-      <c r="F7">
+      <c r="O7">
         <v>0.92269999999999996</v>
       </c>
-      <c r="G7">
+      <c r="P7">
         <v>0.98899999999999999</v>
       </c>
-      <c r="H7">
+      <c r="Q7">
         <v>0.98819999999999997</v>
       </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
+        <v>30</v>
+      </c>
+      <c r="J8" s="4">
         <v>35</v>
       </c>
-      <c r="B8">
+      <c r="K8">
         <v>0.91559999999999997</v>
       </c>
-      <c r="C8">
+      <c r="L8">
         <v>0.86029999999999995</v>
       </c>
-      <c r="D8">
+      <c r="M8">
         <v>0.9708</v>
       </c>
-      <c r="E8">
+      <c r="N8">
         <v>0.96750000000000003</v>
       </c>
-      <c r="F8">
+      <c r="O8">
         <v>0.91039999999999999</v>
       </c>
-      <c r="G8">
+      <c r="P8">
         <v>0.98919999999999997</v>
       </c>
-      <c r="H8">
+      <c r="Q8">
         <v>0.98870000000000002</v>
       </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>35</v>
+      </c>
+      <c r="J9" s="10">
         <v>40</v>
       </c>
-      <c r="B9">
+      <c r="K9">
         <v>0.92549999999999999</v>
       </c>
-      <c r="C9">
+      <c r="L9">
         <v>0.8821</v>
       </c>
-      <c r="D9">
+      <c r="M9">
         <v>0.96879999999999999</v>
       </c>
-      <c r="E9">
+      <c r="N9">
         <v>0.96589999999999998</v>
       </c>
-      <c r="F9">
+      <c r="O9">
         <v>0.92179999999999995</v>
       </c>
-      <c r="G9">
+      <c r="P9">
         <v>0.98899999999999999</v>
       </c>
-      <c r="H9">
+      <c r="Q9">
         <v>0.98819999999999997</v>
       </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>40</v>
+      </c>
+      <c r="J10" s="4">
         <v>45</v>
       </c>
-      <c r="B10">
+      <c r="K10">
         <v>0.93589999999999995</v>
       </c>
-      <c r="C10">
+      <c r="L10">
         <v>0.90669999999999995</v>
       </c>
-      <c r="D10">
+      <c r="M10">
         <v>0.96440000000000003</v>
       </c>
-      <c r="E10">
+      <c r="N10">
         <v>0.96160000000000001</v>
       </c>
-      <c r="F10">
+      <c r="O10">
         <v>0.93310000000000004</v>
       </c>
-      <c r="G10">
+      <c r="P10">
         <v>0.9899</v>
       </c>
-      <c r="H10">
+      <c r="Q10">
         <v>0.98929999999999996</v>
       </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
+        <v>45</v>
+      </c>
+      <c r="J11" s="4">
         <v>50</v>
       </c>
-      <c r="B11">
+      <c r="K11">
         <v>0.92549999999999999</v>
       </c>
-      <c r="C11">
+      <c r="L11">
         <v>0.89290000000000003</v>
       </c>
-      <c r="D11">
+      <c r="M11">
         <v>0.95850000000000002</v>
       </c>
-      <c r="E11">
+      <c r="N11">
         <v>0.95669999999999999</v>
       </c>
-      <c r="F11">
+      <c r="O11">
         <v>0.92259999999999998</v>
       </c>
-      <c r="G11">
+      <c r="P11">
         <v>0.9839</v>
       </c>
-      <c r="H11">
+      <c r="Q11">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>50</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B13">
-        <f>MAX(B2:B11)</f>
+      <c r="K13">
+        <f>MAX(K2:K11)</f>
         <v>0.93700000000000006</v>
       </c>
-      <c r="F13">
-        <f t="shared" ref="F13:H13" si="0">MAX(F2:F11)</f>
+      <c r="O13">
+        <f t="shared" ref="O13:Q13" si="0">MAX(O2:O11)</f>
         <v>0.93510000000000004</v>
       </c>
-      <c r="G13">
+      <c r="P13">
         <f t="shared" si="0"/>
         <v>0.99160000000000004</v>
       </c>
-      <c r="H13">
+      <c r="Q13">
         <f t="shared" si="0"/>
         <v>0.99129999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B14">
-        <f>MIN(B2:B11)</f>
+      <c r="K14">
+        <f>MIN(K2:K11)</f>
         <v>0.91559999999999997</v>
       </c>
-      <c r="F14">
-        <f t="shared" ref="F14:H14" si="1">MIN(F2:F11)</f>
+      <c r="O14">
+        <f t="shared" ref="O14:Q14" si="1">MIN(O2:O11)</f>
         <v>0.91039999999999999</v>
       </c>
-      <c r="G14">
+      <c r="P14">
         <f t="shared" si="1"/>
         <v>0.9839</v>
       </c>
-      <c r="H14">
+      <c r="Q14">
         <f t="shared" si="1"/>
         <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="C16">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="D16">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="E16">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="F16">
+        <v>0.93079999999999996</v>
+      </c>
+      <c r="G16">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="H16">
+        <v>0.98480000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>0.93389999999999995</v>
+      </c>
+      <c r="C17">
+        <v>0.90269999999999995</v>
+      </c>
+      <c r="D17">
+        <v>0.96509999999999996</v>
+      </c>
+      <c r="E17">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="F17">
+        <v>0.93159999999999998</v>
+      </c>
+      <c r="G17">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.98580000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>0.92369999999999997</v>
+      </c>
+      <c r="C18">
+        <v>0.87880000000000003</v>
+      </c>
+      <c r="D18">
+        <v>0.96870000000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.9657</v>
+      </c>
+      <c r="F18">
+        <v>0.91990000000000005</v>
+      </c>
+      <c r="G18">
+        <v>0.9869</v>
+      </c>
+      <c r="H18">
+        <v>0.98740000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="34">
+        <v>20</v>
+      </c>
+      <c r="B19" s="36">
+        <v>0.94110000000000005</v>
+      </c>
+      <c r="C19" s="35">
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="D19" s="35">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="E19" s="35">
+        <v>0.95930000000000004</v>
+      </c>
+      <c r="F19" s="36">
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="G19" s="35">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="H19" s="35">
+        <v>0.98550000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="C20">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="D20">
+        <v>0.97319999999999995</v>
+      </c>
+      <c r="E20">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="F20">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0.99080000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="C21">
+        <v>0.87739999999999996</v>
+      </c>
+      <c r="D21">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="E21">
+        <v>0.97150000000000003</v>
+      </c>
+      <c r="F21">
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="G21">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="H21">
+        <v>0.99029999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="C22">
+        <v>0.84630000000000005</v>
+      </c>
+      <c r="D22">
+        <v>0.98129999999999995</v>
+      </c>
+      <c r="E22">
+        <v>0.97840000000000005</v>
+      </c>
+      <c r="F22">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="G22">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="H22">
+        <v>0.98980000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>0.92679999999999996</v>
+      </c>
+      <c r="C23">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="D23">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="E23">
+        <v>0.96609999999999996</v>
+      </c>
+      <c r="F23">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="G23">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="H23">
+        <v>0.98839999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>45</v>
+      </c>
+      <c r="B24">
+        <v>0.9083</v>
+      </c>
+      <c r="C24">
+        <v>0.84540000000000004</v>
+      </c>
+      <c r="D24">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="E24">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="F24">
+        <v>0.90280000000000005</v>
+      </c>
+      <c r="G24">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="H24">
+        <v>0.98529999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>0.9224</v>
+      </c>
+      <c r="C25">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="D25">
+        <v>0.96350000000000002</v>
+      </c>
+      <c r="E25">
+        <v>0.9617</v>
+      </c>
+      <c r="F25">
+        <v>0.91979999999999995</v>
+      </c>
+      <c r="G25">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="H25">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <f>MAX(B16:B25)</f>
+        <v>0.94110000000000005</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:H27" si="2">MAX(F16:F25)</f>
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>0.99080000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <f>MIN(B16:B25)</f>
+        <v>0.9083</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28:H28" si="3">MIN(F16:F25)</f>
+        <v>0.90280000000000005</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>0.98480000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7801,28 +6665,28 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="28">
         <v>0.93179999999999996</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="29">
         <v>0.89990000000000003</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="29">
         <v>0.96389999999999998</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="29">
         <v>0.96199999999999997</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="29">
         <v>0.92920000000000003</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="29">
         <v>0.98750000000000004</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="29">
         <v>0.98670000000000002</v>
       </c>
     </row>
@@ -8326,31 +7190,31 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="21">
         <v>0.3</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>10</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <v>0.94350000000000001</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <v>0.92410000000000003</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <v>0.9627</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="17">
         <v>0.96199999999999997</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="18">
         <v>0.94240000000000002</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="17">
         <v>0.98899999999999999</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="17">
         <v>0.98839999999999995</v>
       </c>
     </row>
@@ -8419,25 +7283,25 @@
       <c r="B18" s="10">
         <v>0</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <v>0.92190000000000005</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <v>0.87509999999999999</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <v>0.96960000000000002</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="17">
         <v>0.96689999999999998</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="17">
         <v>0.91859999999999997</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="18">
         <v>0.99060000000000004</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="18">
         <v>0.99029999999999996</v>
       </c>
     </row>
@@ -8585,7 +7449,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8601,10 +7465,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -8627,8 +7491,8 @@
       <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="44" t="s">
-        <v>35</v>
+      <c r="K1" s="31" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -8638,10 +7502,10 @@
       <c r="B2">
         <v>8</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>0.93930000000000002</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="29">
         <v>0.92949999999999999</v>
       </c>
       <c r="E2">
@@ -8650,7 +7514,7 @@
       <c r="F2">
         <v>0.94810000000000005</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="12">
         <v>0.93840000000000001</v>
       </c>
       <c r="H2">
@@ -8769,10 +7633,10 @@
       <c r="G6">
         <v>0.92059999999999997</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="18">
         <v>0.99</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="18">
         <v>0.98929999999999996</v>
       </c>
     </row>
@@ -8837,7 +7701,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="C5" sqref="C5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8924,9 +7788,27 @@
       <c r="B2" s="4">
         <v>8</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="C2">
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="D2">
+        <v>0.86050000000000004</v>
+      </c>
+      <c r="E2">
+        <v>0.97150000000000003</v>
+      </c>
+      <c r="F2">
+        <v>0.9677</v>
+      </c>
+      <c r="G2">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="H2">
+        <v>0.98850000000000005</v>
+      </c>
+      <c r="I2">
+        <v>0.9879</v>
+      </c>
       <c r="K2" s="4">
         <v>8</v>
       </c>
@@ -8962,6 +7844,27 @@
       <c r="B3" s="4">
         <v>16</v>
       </c>
+      <c r="C3">
+        <v>0.9143</v>
+      </c>
+      <c r="D3">
+        <v>0.8569</v>
+      </c>
+      <c r="E3">
+        <v>0.97319999999999995</v>
+      </c>
+      <c r="F3">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="G3">
+        <v>0.90969999999999995</v>
+      </c>
+      <c r="H3">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="I3">
+        <v>0.98860000000000003</v>
+      </c>
       <c r="K3" s="4">
         <v>8</v>
       </c>
@@ -8997,6 +7900,27 @@
       <c r="B4" s="10">
         <v>32</v>
       </c>
+      <c r="C4">
+        <v>0.92859999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.97460000000000002</v>
+      </c>
+      <c r="F4">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.92449999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.98850000000000005</v>
+      </c>
+      <c r="I4">
+        <v>0.98819999999999997</v>
+      </c>
       <c r="K4" s="4">
         <v>8</v>
       </c>
@@ -9026,11 +7950,32 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="42">
         <v>8</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="42">
         <v>64</v>
+      </c>
+      <c r="C5" s="36">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D5" s="35">
+        <v>0.91059999999999997</v>
+      </c>
+      <c r="E5" s="35">
+        <v>0.96550000000000002</v>
+      </c>
+      <c r="F5" s="35">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="G5" s="36">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="H5" s="35">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="I5" s="35">
+        <v>0.98260000000000003</v>
       </c>
       <c r="K5" s="10">
         <v>8</v>
@@ -9067,19 +8012,40 @@
       <c r="B6" s="4">
         <v>128</v>
       </c>
-      <c r="K6" s="21">
+      <c r="C6">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="D6">
+        <v>0.89370000000000005</v>
+      </c>
+      <c r="E6">
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="F6">
+        <v>0.97009999999999996</v>
+      </c>
+      <c r="G6">
+        <v>0.93020000000000003</v>
+      </c>
+      <c r="H6">
+        <v>0.98619999999999997</v>
+      </c>
+      <c r="I6">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="K6" s="20">
         <v>8</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="20">
         <v>128</v>
       </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -9094,6 +8060,27 @@
       <c r="B8" s="4">
         <v>8</v>
       </c>
+      <c r="C8">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.89319999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.97309999999999997</v>
+      </c>
+      <c r="F8">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="G8">
+        <v>0.93</v>
+      </c>
+      <c r="H8">
+        <v>0.9899</v>
+      </c>
+      <c r="I8">
+        <v>0.98950000000000005</v>
+      </c>
       <c r="K8" s="4">
         <v>16</v>
       </c>
@@ -9118,7 +8105,7 @@
       <c r="R8">
         <v>0.99009999999999998</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="12">
         <v>0.99029999999999996</v>
       </c>
     </row>
@@ -9129,6 +8116,27 @@
       <c r="B9" s="4">
         <v>16</v>
       </c>
+      <c r="C9">
+        <v>0.92679999999999996</v>
+      </c>
+      <c r="D9">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="E9">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.9244</v>
+      </c>
+      <c r="H9">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.98529999999999995</v>
+      </c>
       <c r="K9" s="4">
         <v>16</v>
       </c>
@@ -9164,6 +8172,27 @@
       <c r="B10" s="10">
         <v>32</v>
       </c>
+      <c r="C10">
+        <v>0.92679999999999996</v>
+      </c>
+      <c r="D10">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="E10">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="F10">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="G10">
+        <v>0.9234</v>
+      </c>
+      <c r="H10">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="I10">
+        <v>0.98609999999999998</v>
+      </c>
       <c r="K10" s="4">
         <v>16</v>
       </c>
@@ -9199,6 +8228,27 @@
       <c r="B11" s="4">
         <v>64</v>
       </c>
+      <c r="C11">
+        <v>0.92290000000000005</v>
+      </c>
+      <c r="D11">
+        <v>0.86750000000000005</v>
+      </c>
+      <c r="E11">
+        <v>0.97940000000000005</v>
+      </c>
+      <c r="F11">
+        <v>0.97760000000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.91890000000000005</v>
+      </c>
+      <c r="H11">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="I11">
+        <v>0.99129999999999996</v>
+      </c>
       <c r="K11" s="4">
         <v>16</v>
       </c>
@@ -9234,19 +8284,40 @@
       <c r="B12" s="4">
         <v>128</v>
       </c>
-      <c r="K12" s="21">
+      <c r="C12">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="D12">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="E12">
+        <v>0.96719999999999995</v>
+      </c>
+      <c r="F12">
+        <v>0.96540000000000004</v>
+      </c>
+      <c r="G12">
+        <v>0.9304</v>
+      </c>
+      <c r="H12">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="I12">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="K12" s="20">
         <v>16</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="20">
         <v>128</v>
       </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -9261,6 +8332,27 @@
       <c r="B14" s="4">
         <v>8</v>
       </c>
+      <c r="C14">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="D14">
+        <v>0.89580000000000004</v>
+      </c>
+      <c r="E14">
+        <v>0.9708</v>
+      </c>
+      <c r="F14">
+        <v>0.96870000000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.98919999999999997</v>
+      </c>
       <c r="K14" s="4">
         <v>32</v>
       </c>
@@ -9282,7 +8374,7 @@
       <c r="Q14">
         <v>0.91839999999999999</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="12">
         <v>0.99029999999999996</v>
       </c>
       <c r="S14">
@@ -9296,6 +8388,27 @@
       <c r="B15" s="4">
         <v>16</v>
       </c>
+      <c r="C15">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="D15">
+        <v>0.89039999999999997</v>
+      </c>
+      <c r="E15">
+        <v>0.96160000000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.95940000000000003</v>
+      </c>
+      <c r="G15">
+        <v>0.9224</v>
+      </c>
+      <c r="H15">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="I15">
+        <v>0.97740000000000005</v>
+      </c>
       <c r="K15" s="4">
         <v>32</v>
       </c>
@@ -9331,6 +8444,27 @@
       <c r="B16" s="10">
         <v>32</v>
       </c>
+      <c r="C16">
+        <v>0.93669999999999998</v>
+      </c>
+      <c r="D16">
+        <v>0.90149999999999997</v>
+      </c>
+      <c r="E16">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="F16">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="G16">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="H16">
+        <v>0.9849</v>
+      </c>
+      <c r="I16">
+        <v>0.98670000000000002</v>
+      </c>
       <c r="K16" s="4">
         <v>32</v>
       </c>
@@ -9366,6 +8500,27 @@
       <c r="B17" s="4">
         <v>64</v>
       </c>
+      <c r="C17">
+        <v>0.92679999999999996</v>
+      </c>
+      <c r="D17">
+        <v>0.88390000000000002</v>
+      </c>
+      <c r="E17">
+        <v>0.97060000000000002</v>
+      </c>
+      <c r="F17">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="G17">
+        <v>0.92320000000000002</v>
+      </c>
+      <c r="H17">
+        <v>0.9899</v>
+      </c>
+      <c r="I17">
+        <v>0.98819999999999997</v>
+      </c>
       <c r="K17" s="4">
         <v>32</v>
       </c>
@@ -9401,19 +8556,40 @@
       <c r="B18" s="4">
         <v>128</v>
       </c>
-      <c r="K18" s="21">
+      <c r="C18">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="D18">
+        <v>0.89129999999999998</v>
+      </c>
+      <c r="E18">
+        <v>0.96889999999999998</v>
+      </c>
+      <c r="F18">
+        <v>0.96650000000000003</v>
+      </c>
+      <c r="G18">
+        <v>0.92669999999999997</v>
+      </c>
+      <c r="H18">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="I18">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="K18" s="20">
         <v>32</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="20">
         <v>128</v>
       </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -9428,6 +8604,27 @@
       <c r="B20" s="4">
         <v>8</v>
       </c>
+      <c r="C20" s="33">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="D20">
+        <v>0.8538</v>
+      </c>
+      <c r="E20">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="F20">
+        <v>0.96950000000000003</v>
+      </c>
+      <c r="G20">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="H20">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.98750000000000004</v>
+      </c>
       <c r="K20" s="4">
         <v>64</v>
       </c>
@@ -9463,13 +8660,34 @@
       <c r="B21" s="4">
         <v>16</v>
       </c>
+      <c r="C21">
+        <v>0.93589999999999995</v>
+      </c>
+      <c r="D21">
+        <v>0.90269999999999995</v>
+      </c>
+      <c r="E21">
+        <v>0.96860000000000002</v>
+      </c>
+      <c r="F21">
+        <v>0.96579999999999999</v>
+      </c>
+      <c r="G21">
+        <v>0.93289999999999995</v>
+      </c>
+      <c r="H21">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="I21">
+        <v>0.98609999999999998</v>
+      </c>
       <c r="K21" s="4">
         <v>64</v>
       </c>
       <c r="L21" s="4">
         <v>16</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="12">
         <v>0.94140000000000001</v>
       </c>
       <c r="N21">
@@ -9481,7 +8699,7 @@
       <c r="P21">
         <v>0.96489999999999998</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="12">
         <v>0.94010000000000005</v>
       </c>
       <c r="R21">
@@ -9498,6 +8716,27 @@
       <c r="B22" s="10">
         <v>32</v>
       </c>
+      <c r="C22">
+        <v>0.93020000000000003</v>
+      </c>
+      <c r="D22">
+        <v>0.8911</v>
+      </c>
+      <c r="E22">
+        <v>0.96960000000000002</v>
+      </c>
+      <c r="F22">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="G22">
+        <v>0.92769999999999997</v>
+      </c>
+      <c r="H22">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="I22">
+        <v>0.98760000000000003</v>
+      </c>
       <c r="K22" s="4">
         <v>64</v>
       </c>
@@ -9533,6 +8772,27 @@
       <c r="B23" s="4">
         <v>64</v>
       </c>
+      <c r="C23">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="D23">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="E23">
+        <v>0.97460000000000002</v>
+      </c>
+      <c r="F23">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="G23">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="H23">
+        <v>0.9869</v>
+      </c>
+      <c r="I23">
+        <v>0.98670000000000002</v>
+      </c>
       <c r="K23" s="4">
         <v>64</v>
       </c>
@@ -9568,19 +8828,40 @@
       <c r="B24" s="4">
         <v>128</v>
       </c>
-      <c r="K24" s="21">
+      <c r="C24">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="D24">
+        <v>0.89039999999999997</v>
+      </c>
+      <c r="E24">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F24">
+        <v>0.97509999999999997</v>
+      </c>
+      <c r="G24">
+        <v>0.93059999999999998</v>
+      </c>
+      <c r="H24">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="I24">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="K24" s="20">
         <v>64</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L24" s="20">
         <v>128</v>
       </c>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
@@ -9595,6 +8876,27 @@
       <c r="B26" s="4">
         <v>8</v>
       </c>
+      <c r="C26">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="D26">
+        <v>0.87670000000000003</v>
+      </c>
+      <c r="E26">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="F26">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G26">
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="H26">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="I26">
+        <v>0.98109999999999997</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -9603,6 +8905,27 @@
       <c r="B27" s="4">
         <v>16</v>
       </c>
+      <c r="C27">
+        <v>0.9294</v>
+      </c>
+      <c r="D27">
+        <v>0.88570000000000004</v>
+      </c>
+      <c r="E27">
+        <v>0.9738</v>
+      </c>
+      <c r="F27">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="G27">
+        <v>0.9264</v>
+      </c>
+      <c r="H27">
+        <v>0.99</v>
+      </c>
+      <c r="I27">
+        <v>0.98929999999999996</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -9611,6 +8934,27 @@
       <c r="B28" s="10">
         <v>32</v>
       </c>
+      <c r="C28">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="D28">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="E28">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="F28">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="G28">
+        <v>0.92710000000000004</v>
+      </c>
+      <c r="H28">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="I28">
+        <v>0.98719999999999997</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -9619,6 +8963,27 @@
       <c r="B29" s="4">
         <v>64</v>
       </c>
+      <c r="C29" s="1">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.88919999999999999</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.9294</v>
+      </c>
+      <c r="H29" s="32">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="I29" s="32">
+        <v>0.9919</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -9626,6 +8991,27 @@
       </c>
       <c r="B30" s="4">
         <v>128</v>
+      </c>
+      <c r="C30">
+        <v>0.93540000000000001</v>
+      </c>
+      <c r="D30">
+        <v>0.89810000000000001</v>
+      </c>
+      <c r="E30">
+        <v>0.97260000000000002</v>
+      </c>
+      <c r="F30">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="G30">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="H30">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="I30">
+        <v>0.99029999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -9636,18 +9022,30 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2">
+        <f>MAX(C2:C30)</f>
+        <v>0.93799999999999994</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="G32" s="2">
+        <f t="shared" ref="G32:I32" si="0">MAX(G2:G30)</f>
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9919</v>
+      </c>
       <c r="K32" s="4"/>
-      <c r="L32" s="26" t="s">
+      <c r="L32" s="23" t="s">
         <v>22</v>
       </c>
       <c r="M32" s="3">
@@ -9672,18 +9070,30 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33"/>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3">
+        <f>MIN(C2:C30)</f>
+        <v>0.91279999999999994</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="G33" s="3">
+        <f t="shared" ref="G33:I33" si="1">MIN(G2:G30)</f>
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="1"/>
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="1"/>
+        <v>0.97740000000000005</v>
+      </c>
       <c r="K33" s="5"/>
-      <c r="L33" s="26" t="s">
+      <c r="L33" s="23" t="s">
         <v>23</v>
       </c>
       <c r="M33" s="3">
@@ -9708,6 +9118,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9715,7 +9126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>

--- a/results/Hyperparameter_Tuning/Graph_Embedding_SkipGNN.xlsx
+++ b/results/Hyperparameter_Tuning/Graph_Embedding_SkipGNN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="deepwalk" sheetId="16" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="43">
   <si>
     <t>Accuracy</t>
   </si>
@@ -161,7 +161,11 @@
     <t xml:space="preserve">num_walks = 8 , walk_length = 64 </t>
   </si>
   <si>
-    <t>order=3, epochs=20</t>
+    <t>num_walks = 8 , walk_length = 64
+p=0.25, q=0.5</t>
+  </si>
+  <si>
+    <t>order=3, epochs=25</t>
   </si>
 </sst>
 </file>
@@ -281,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -289,7 +293,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -337,6 +340,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,6 +370,1675 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG"/>
+              <a:t>Network Reconstruction</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-SG" baseline="0"/>
+              <a:t> (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-SG"/>
+              <a:t>Skip-GNN)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>struc2vec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ROC-AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.94869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96919999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94710000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98870000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98760000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76D3-4604-833F-0410991E66C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>node2vec+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ROC-AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.94610000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92479999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96709999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98829999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98740000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-76D3-4604-833F-0410991E66C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>node2vec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ROC-AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.94430000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91559999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97250000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94210000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98960000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-76D3-4604-833F-0410991E66C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SDNE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ROC-AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.94350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92410000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9627</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98839999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-76D3-4604-833F-0410991E66C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Deepwalk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ROC-AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.93930000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95889999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93769999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98440000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98380000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-76D3-4604-833F-0410991E66C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VGAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ROC-AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.93930000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94810000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98540000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98480000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-76D3-4604-833F-0410991E66C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ripple2vec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ROC-AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$B$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96389999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98540000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98260000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-76D3-4604-833F-0410991E66C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LINE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ROC-AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.93620000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98729999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97719999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-76D3-4604-833F-0410991E66C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GraRep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ROC-AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$B$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.93179999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89990000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96389999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92920000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98670000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-76D3-4604-833F-0410991E66C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="701303023"/>
+        <c:axId val="701307599"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="701303023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="701307599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="701307599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="701303023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -644,10 +2324,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -731,60 +2411,60 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>8</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>32</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>0.92500000000000004</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>0.87609999999999999</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>0.97529999999999994</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <v>0.97330000000000005</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <v>0.92169999999999996</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="24">
         <v>0.98819999999999997</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="24">
         <v>0.98919999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="23">
         <v>8</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>64</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>0.91220000000000001</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <v>0.85260000000000002</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <v>0.97060000000000002</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <v>0.96619999999999995</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="24">
         <v>0.90559999999999996</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="24">
         <v>0.98660000000000003</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <v>0.98580000000000001</v>
       </c>
     </row>
@@ -908,7 +2588,7 @@
       <c r="A10" s="4">
         <v>16</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>32</v>
       </c>
       <c r="C10">
@@ -1082,28 +2762,28 @@
       <c r="A16" s="4">
         <v>32</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>32</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>0.9294</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <v>0.88560000000000005</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <v>0.9738</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <v>0.97160000000000002</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <v>0.92649999999999999</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="17">
         <v>0.99029999999999996</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="17">
         <v>0.99</v>
       </c>
     </row>
@@ -1256,7 +2936,7 @@
       <c r="A22" s="4">
         <v>64</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>32</v>
       </c>
       <c r="C22">
@@ -1375,25 +3055,25 @@
       <c r="B26" s="4">
         <v>8</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="17">
         <v>0.93930000000000002</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="16">
         <v>0.9194</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="16">
         <v>0.95889999999999997</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="16">
         <v>0.95750000000000002</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="16">
         <v>0.93769999999999998</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="16">
         <v>0.98440000000000005</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="16">
         <v>0.98380000000000001</v>
       </c>
     </row>
@@ -1430,7 +3110,7 @@
       <c r="A28" s="4">
         <v>128</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>32</v>
       </c>
       <c r="C28">
@@ -1445,7 +3125,7 @@
       <c r="F28">
         <v>0.92849999999999999</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="11">
         <v>0.93920000000000003</v>
       </c>
       <c r="H28">
@@ -1604,7 +3284,7 @@
       <c r="A34" s="4">
         <v>256</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <v>32</v>
       </c>
       <c r="C34">
@@ -1783,7 +3463,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,285 +3480,303 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="S1" s="32"/>
+      <c r="K1" s="36"/>
+      <c r="S1" s="31"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="39">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="C2" s="39">
+        <v>0.92759999999999998</v>
+      </c>
+      <c r="D2" s="39">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="E2" s="39">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="F2" s="39">
+        <v>0.94710000000000005</v>
+      </c>
+      <c r="G2" s="39">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="H2" s="39">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="39">
+        <v>0.94610000000000005</v>
+      </c>
+      <c r="C3" s="39">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="D3" s="39">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="E3" s="39">
+        <v>0.96489999999999998</v>
+      </c>
+      <c r="F3" s="39">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="G3" s="39">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="H3" s="39">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="39">
+        <v>0.94430000000000003</v>
+      </c>
+      <c r="C4" s="39">
+        <v>0.91559999999999997</v>
+      </c>
+      <c r="D4" s="39">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="E4" s="39">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="F4" s="39">
+        <v>0.94210000000000005</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.98960000000000004</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="38">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="C5" s="38">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="D5" s="38">
+        <v>0.9627</v>
+      </c>
+      <c r="E5" s="38">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="F5" s="38">
+        <v>0.94240000000000002</v>
+      </c>
+      <c r="G5" s="38">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="H5" s="38">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B6" s="38">
         <v>0.93930000000000002</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C6" s="38">
         <v>0.9194</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D6" s="38">
         <v>0.95889999999999997</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E6" s="38">
         <v>0.95750000000000002</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F6" s="38">
         <v>0.93769999999999998</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G6" s="38">
         <v>0.98440000000000005</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H6" s="38">
         <v>0.98380000000000001</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="40">
-        <v>0.94350000000000001</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.92049999999999998</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.94230000000000003</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.98609999999999998</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="40">
-        <v>0.94869999999999999</v>
-      </c>
-      <c r="C4" s="40">
-        <v>0.92759999999999998</v>
-      </c>
-      <c r="D4" s="40">
-        <v>0.96919999999999995</v>
-      </c>
-      <c r="E4" s="40">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="F4" s="40">
-        <v>0.94710000000000005</v>
-      </c>
-      <c r="G4" s="40">
-        <v>0.98870000000000002</v>
-      </c>
-      <c r="H4" s="40">
-        <v>0.98760000000000003</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.94810000000000005</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.93840000000000001</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="39">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="C8" s="39">
+        <v>0.91059999999999997</v>
+      </c>
+      <c r="D8" s="39">
+        <v>0.96550000000000002</v>
+      </c>
+      <c r="E8" s="39">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="F8" s="39">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="G8" s="39">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="H8" s="39">
+        <v>0.98260000000000003</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="40">
-        <v>0.94110000000000005</v>
-      </c>
-      <c r="C5" s="40">
-        <v>0.92110000000000003</v>
-      </c>
-      <c r="D5" s="40">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="E5" s="40">
-        <v>0.95930000000000004</v>
-      </c>
-      <c r="F5" s="40">
-        <v>0.93979999999999997</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="B9" s="45">
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="C9" s="45">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="D9" s="45">
+        <v>0.96970000000000001</v>
+      </c>
+      <c r="E9" s="45">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="F9" s="45">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="G9" s="45">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="H9" s="45">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.93179999999999996</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.89990000000000003</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="H10" s="2">
         <v>0.98670000000000002</v>
       </c>
-      <c r="H5" s="2">
-        <v>0.98550000000000004</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="39">
-        <v>0.94350000000000001</v>
-      </c>
-      <c r="C6" s="39">
-        <v>0.92410000000000003</v>
-      </c>
-      <c r="D6" s="39">
-        <v>0.9627</v>
-      </c>
-      <c r="E6" s="39">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="F6" s="39">
-        <v>0.94240000000000002</v>
-      </c>
-      <c r="G6" s="39">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="H6" s="39">
-        <v>0.98839999999999995</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.93179999999999996</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.89990000000000003</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.96389999999999998</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.92920000000000003</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.93930000000000002</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.92949999999999999</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.94810000000000005</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.93840000000000001</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.98540000000000005</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.98480000000000001</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="40">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="C9" s="40">
-        <v>0.91059999999999997</v>
-      </c>
-      <c r="D9" s="40">
-        <v>0.96550000000000002</v>
-      </c>
-      <c r="E9" s="40">
-        <v>0.96389999999999998</v>
-      </c>
-      <c r="F9" s="40">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="G9" s="40">
-        <v>0.98540000000000005</v>
-      </c>
-      <c r="H9" s="40">
-        <v>0.98260000000000003</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="41" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:I10">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2093,10 +3791,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -2183,7 +3881,7 @@
       <c r="A4" s="4">
         <v>0.25</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
       <c r="C4">
@@ -2332,7 +4030,7 @@
       <c r="A10" s="4">
         <v>0.5</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>1</v>
       </c>
       <c r="C10">
@@ -2481,7 +4179,7 @@
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>1</v>
       </c>
       <c r="C16">
@@ -2630,7 +4328,7 @@
       <c r="A22" s="4">
         <v>2</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>1</v>
       </c>
       <c r="C22">
@@ -2779,7 +4477,7 @@
       <c r="A28" s="4">
         <v>4</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>1</v>
       </c>
       <c r="C28">
@@ -2905,25 +4603,25 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="16">
         <f>AVERAGE(C2:C30)</f>
         <v>0.92606000000000011</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17">
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16">
         <f t="shared" ref="G34:I34" si="2">AVERAGE(G2:G30)</f>
         <v>0.9220879999999998</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="16">
         <f t="shared" si="2"/>
         <v>0.98555999999999999</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="16">
         <f t="shared" si="2"/>
         <v>0.98429599999999962</v>
       </c>
@@ -2948,10 +4646,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -3038,7 +4736,7 @@
       <c r="A4" s="4">
         <v>0.25</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
       <c r="C4">
@@ -3194,7 +4892,7 @@
       <c r="A10" s="4">
         <v>0.5</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>1</v>
       </c>
       <c r="C10">
@@ -3350,7 +5048,7 @@
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>1</v>
       </c>
       <c r="C16">
@@ -3506,7 +5204,7 @@
       <c r="A22" s="4">
         <v>2</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>1</v>
       </c>
       <c r="C22">
@@ -3662,7 +5360,7 @@
       <c r="A28" s="4">
         <v>4</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>1</v>
       </c>
       <c r="C28">
@@ -3757,7 +5455,7 @@
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C32">
@@ -3778,7 +5476,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C33">
@@ -3799,25 +5497,25 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="16">
         <f>AVERAGE(C2:C30)</f>
         <v>0.91816399999999998</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17">
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16">
         <f t="shared" ref="G34:I34" si="0">AVERAGE(G2:G30)</f>
         <v>0.91635200000000017</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="16">
         <f t="shared" si="0"/>
         <v>0.98315999999999992</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="16">
         <f t="shared" si="0"/>
         <v>0.98226000000000013</v>
       </c>
@@ -3830,23 +5528,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -3879,25 +5573,25 @@
         <v>0.25</v>
       </c>
       <c r="C2">
-        <v>0.91510000000000002</v>
+        <v>0.92710000000000004</v>
       </c>
       <c r="D2">
-        <v>0.84870000000000001</v>
+        <v>0.88280000000000003</v>
       </c>
       <c r="E2">
-        <v>0.98170000000000002</v>
+        <v>0.97170000000000001</v>
       </c>
       <c r="F2">
-        <v>0.97960000000000003</v>
+        <v>0.96930000000000005</v>
       </c>
       <c r="G2">
-        <v>0.90859999999999996</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="I2" s="12">
-        <v>0.99150000000000005</v>
+        <v>0.92390000000000005</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0.99099999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3908,54 +5602,54 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.92810000000000004</v>
+        <v>0.92449999999999999</v>
       </c>
       <c r="D3">
-        <v>0.88749999999999996</v>
+        <v>0.87770000000000004</v>
       </c>
       <c r="E3">
-        <v>0.96909999999999996</v>
+        <v>0.97160000000000002</v>
       </c>
       <c r="F3">
-        <v>0.96719999999999995</v>
+        <v>0.96950000000000003</v>
       </c>
       <c r="G3">
-        <v>0.92490000000000006</v>
+        <v>0.92069999999999996</v>
       </c>
       <c r="H3">
-        <v>0.98960000000000004</v>
+        <v>0.98980000000000001</v>
       </c>
       <c r="I3">
-        <v>0.98909999999999998</v>
+        <v>0.98929999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>0.25</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.92730000000000001</v>
+        <v>0.92859999999999998</v>
       </c>
       <c r="D4">
-        <v>0.88139999999999996</v>
+        <v>0.88690000000000002</v>
       </c>
       <c r="E4">
-        <v>0.97370000000000001</v>
+        <v>0.97070000000000001</v>
       </c>
       <c r="F4">
-        <v>0.97170000000000001</v>
+        <v>0.96830000000000005</v>
       </c>
       <c r="G4">
-        <v>0.92420000000000002</v>
+        <v>0.92579999999999996</v>
       </c>
       <c r="H4">
-        <v>0.98919999999999997</v>
+        <v>0.98850000000000005</v>
       </c>
       <c r="I4">
-        <v>0.98909999999999998</v>
+        <v>0.98760000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3966,25 +5660,25 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>0.93459999999999999</v>
+        <v>0.91930000000000001</v>
       </c>
       <c r="D5">
-        <v>0.90890000000000004</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="E5">
-        <v>0.96050000000000002</v>
+        <v>0.97219999999999995</v>
       </c>
       <c r="F5">
-        <v>0.9587</v>
+        <v>0.96940000000000004</v>
       </c>
       <c r="G5">
-        <v>0.93269999999999997</v>
+        <v>0.91520000000000001</v>
       </c>
       <c r="H5">
-        <v>0.98360000000000003</v>
+        <v>0.98429999999999995</v>
       </c>
       <c r="I5">
-        <v>0.97399999999999998</v>
+        <v>0.97650000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3995,65 +5689,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.93100000000000005</v>
+        <v>0.9294</v>
       </c>
       <c r="D6">
-        <v>0.8911</v>
+        <v>0.89180000000000004</v>
       </c>
       <c r="E6">
-        <v>0.97199999999999998</v>
+        <v>0.96750000000000003</v>
       </c>
       <c r="F6">
-        <v>0.97040000000000004</v>
+        <v>0.96530000000000005</v>
       </c>
       <c r="G6">
-        <v>0.92900000000000005</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="H6">
-        <v>0.98950000000000005</v>
+        <v>0.98770000000000002</v>
       </c>
       <c r="I6">
-        <v>0.98950000000000005</v>
+        <v>0.98740000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
+      <c r="A8" s="33">
         <v>0.5</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="33">
         <v>0.25</v>
       </c>
-      <c r="C8" s="28">
-        <v>0.94350000000000001</v>
-      </c>
-      <c r="D8" s="29">
-        <v>0.92049999999999998</v>
-      </c>
-      <c r="E8" s="29">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="F8" s="29">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="G8" s="29">
-        <v>0.94230000000000003</v>
-      </c>
-      <c r="H8" s="29">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="I8" s="29">
-        <v>0.98609999999999998</v>
+      <c r="C8" s="35">
+        <v>0.94430000000000003</v>
+      </c>
+      <c r="D8" s="34">
+        <v>0.91559999999999997</v>
+      </c>
+      <c r="E8" s="34">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="F8" s="34">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="G8" s="35">
+        <v>0.94210000000000005</v>
+      </c>
+      <c r="H8" s="34">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="I8" s="34">
+        <v>0.98960000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4064,54 +5751,54 @@
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>0.92969999999999997</v>
+        <v>0.92549999999999999</v>
       </c>
       <c r="D9">
-        <v>0.88529999999999998</v>
+        <v>0.88219999999999998</v>
       </c>
       <c r="E9">
-        <v>0.97360000000000002</v>
+        <v>0.97</v>
       </c>
       <c r="F9">
-        <v>0.97070000000000001</v>
+        <v>0.96809999999999996</v>
       </c>
       <c r="G9">
-        <v>0.92600000000000005</v>
+        <v>0.92259999999999998</v>
       </c>
       <c r="H9">
-        <v>0.98899999999999999</v>
+        <v>0.98770000000000002</v>
       </c>
       <c r="I9">
-        <v>0.98880000000000001</v>
+        <v>0.98750000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>0.5</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0.92530000000000001</v>
+        <v>0.92759999999999998</v>
       </c>
       <c r="D10">
-        <v>0.87319999999999998</v>
+        <v>0.88070000000000004</v>
       </c>
       <c r="E10">
-        <v>0.97750000000000004</v>
+        <v>0.97419999999999995</v>
       </c>
       <c r="F10">
-        <v>0.97509999999999997</v>
+        <v>0.97109999999999996</v>
       </c>
       <c r="G10">
-        <v>0.92130000000000001</v>
+        <v>0.92369999999999997</v>
       </c>
       <c r="H10">
-        <v>0.98850000000000005</v>
+        <v>0.98829999999999996</v>
       </c>
       <c r="I10">
-        <v>0.98829999999999996</v>
+        <v>0.98629999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4125,22 +5812,22 @@
         <v>0.93020000000000003</v>
       </c>
       <c r="D11">
-        <v>0.88900000000000001</v>
+        <v>0.88980000000000004</v>
       </c>
       <c r="E11">
-        <v>0.97089999999999999</v>
+        <v>0.97050000000000003</v>
       </c>
       <c r="F11">
-        <v>0.96819999999999995</v>
+        <v>0.96760000000000002</v>
       </c>
       <c r="G11">
-        <v>0.92679999999999996</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="H11">
-        <v>0.98629999999999995</v>
+        <v>0.9859</v>
       </c>
       <c r="I11">
-        <v>0.98</v>
+        <v>0.97689999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4151,37 +5838,30 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>0.92190000000000005</v>
+        <v>0.92759999999999998</v>
       </c>
       <c r="D12">
-        <v>0.87080000000000002</v>
+        <v>0.88280000000000003</v>
       </c>
       <c r="E12">
-        <v>0.9738</v>
+        <v>0.97250000000000003</v>
       </c>
       <c r="F12">
-        <v>0.97170000000000001</v>
+        <v>0.96989999999999998</v>
       </c>
       <c r="G12">
-        <v>0.91759999999999997</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="H12">
-        <v>0.9909</v>
+        <v>0.98909999999999998</v>
       </c>
       <c r="I12">
-        <v>0.99029999999999996</v>
+        <v>0.98939999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -4191,25 +5871,25 @@
         <v>0.25</v>
       </c>
       <c r="C14">
-        <v>0.92789999999999995</v>
+        <v>0.92730000000000001</v>
       </c>
       <c r="D14">
-        <v>0.88400000000000001</v>
+        <v>0.88009999999999999</v>
       </c>
       <c r="E14">
-        <v>0.97189999999999999</v>
+        <v>0.97370000000000001</v>
       </c>
       <c r="F14">
-        <v>0.96960000000000002</v>
+        <v>0.97060000000000002</v>
       </c>
       <c r="G14">
-        <v>0.92400000000000004</v>
+        <v>0.92290000000000005</v>
       </c>
       <c r="H14">
-        <v>0.98929999999999996</v>
+        <v>0.98640000000000005</v>
       </c>
       <c r="I14">
-        <v>0.98870000000000002</v>
+        <v>0.98619999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4220,54 +5900,54 @@
         <v>0.5</v>
       </c>
       <c r="C15">
-        <v>0.92679999999999996</v>
+        <v>0.92030000000000001</v>
       </c>
       <c r="D15">
-        <v>0.88759999999999994</v>
+        <v>0.86929999999999996</v>
       </c>
       <c r="E15">
-        <v>0.96609999999999996</v>
+        <v>0.97050000000000003</v>
       </c>
       <c r="F15">
-        <v>0.96330000000000005</v>
+        <v>0.9667</v>
       </c>
       <c r="G15">
-        <v>0.92379999999999995</v>
+        <v>0.91520000000000001</v>
       </c>
       <c r="H15">
-        <v>0.98429999999999995</v>
+        <v>0.98570000000000002</v>
       </c>
       <c r="I15">
-        <v>0.98440000000000005</v>
+        <v>0.98380000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0.92679999999999996</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="D16">
-        <v>0.88300000000000001</v>
+        <v>0.87390000000000001</v>
       </c>
       <c r="E16">
-        <v>0.9708</v>
+        <v>0.97309999999999997</v>
       </c>
       <c r="F16">
-        <v>0.96799999999999997</v>
+        <v>0.9698</v>
       </c>
       <c r="G16">
-        <v>0.92330000000000001</v>
+        <v>0.91930000000000001</v>
       </c>
       <c r="H16">
-        <v>0.98760000000000003</v>
+        <v>0.98719999999999997</v>
       </c>
       <c r="I16">
-        <v>0.98719999999999997</v>
+        <v>0.98670000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4278,25 +5958,25 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>0.92679999999999996</v>
+        <v>0.9133</v>
       </c>
       <c r="D17">
-        <v>0.88660000000000005</v>
+        <v>0.85680000000000001</v>
       </c>
       <c r="E17">
-        <v>0.96830000000000005</v>
+        <v>0.96930000000000005</v>
       </c>
       <c r="F17">
-        <v>0.96650000000000003</v>
+        <v>0.96550000000000002</v>
       </c>
       <c r="G17">
-        <v>0.92449999999999999</v>
+        <v>0.90780000000000005</v>
       </c>
       <c r="H17">
-        <v>0.98680000000000001</v>
+        <v>0.98560000000000003</v>
       </c>
       <c r="I17">
-        <v>0.98599999999999999</v>
+        <v>0.98140000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -4307,37 +5987,30 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>0.93179999999999996</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="D18">
-        <v>0.89459999999999995</v>
+        <v>0.90620000000000001</v>
       </c>
       <c r="E18">
-        <v>0.96919999999999995</v>
+        <v>0.96779999999999999</v>
       </c>
       <c r="F18">
-        <v>0.96699999999999997</v>
+        <v>0.9657</v>
       </c>
       <c r="G18">
-        <v>0.92930000000000001</v>
+        <v>0.93469999999999998</v>
       </c>
       <c r="H18">
-        <v>0.98560000000000003</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="I18">
-        <v>0.98609999999999998</v>
+        <v>0.98699999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -4347,25 +6020,25 @@
         <v>0.25</v>
       </c>
       <c r="C20">
-        <v>0.93930000000000002</v>
+        <v>0.91820000000000002</v>
       </c>
       <c r="D20">
-        <v>0.91469999999999996</v>
+        <v>0.85880000000000001</v>
       </c>
       <c r="E20">
-        <v>0.96399999999999997</v>
+        <v>0.97670000000000001</v>
       </c>
       <c r="F20">
-        <v>0.96260000000000001</v>
+        <v>0.97340000000000004</v>
       </c>
       <c r="G20">
-        <v>0.93759999999999999</v>
+        <v>0.91220000000000001</v>
       </c>
       <c r="H20">
-        <v>0.98860000000000003</v>
+        <v>0.98740000000000006</v>
       </c>
       <c r="I20">
-        <v>0.98519999999999996</v>
+        <v>0.98429999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4376,54 +6049,54 @@
         <v>0.5</v>
       </c>
       <c r="C21">
-        <v>0.8992</v>
+        <v>0.91459999999999997</v>
       </c>
       <c r="D21">
-        <v>0.82569999999999999</v>
+        <v>0.86009999999999998</v>
       </c>
       <c r="E21">
-        <v>0.97209999999999996</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="F21">
-        <v>0.96709999999999996</v>
+        <v>0.96430000000000005</v>
       </c>
       <c r="G21">
-        <v>0.8901</v>
+        <v>0.9083</v>
       </c>
       <c r="H21">
-        <v>0.98680000000000001</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="I21">
-        <v>0.98550000000000004</v>
+        <v>0.98729999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0.91739999999999999</v>
+        <v>0.92630000000000001</v>
       </c>
       <c r="D22">
-        <v>0.86299999999999999</v>
+        <v>0.87819999999999998</v>
       </c>
       <c r="E22">
-        <v>0.97270000000000001</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="F22">
-        <v>0.96989999999999998</v>
+        <v>0.97150000000000003</v>
       </c>
       <c r="G22">
-        <v>0.91310000000000002</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="H22">
-        <v>0.98750000000000004</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="I22">
-        <v>0.98740000000000006</v>
+        <v>0.98860000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -4434,25 +6107,25 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>0.90780000000000005</v>
+        <v>0.92920000000000003</v>
       </c>
       <c r="D23">
-        <v>0.84030000000000005</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="E23">
-        <v>0.97570000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="F23">
-        <v>0.97289999999999999</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="G23">
-        <v>0.90129999999999999</v>
+        <v>0.9254</v>
       </c>
       <c r="H23">
-        <v>0.98450000000000004</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="I23">
-        <v>0.98380000000000001</v>
+        <v>0.98080000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4463,37 +6136,30 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <v>0.92889999999999995</v>
+        <v>0.9214</v>
       </c>
       <c r="D24">
-        <v>0.8861</v>
+        <v>0.88670000000000004</v>
       </c>
       <c r="E24">
-        <v>0.97219999999999995</v>
+        <v>0.95650000000000002</v>
       </c>
       <c r="F24">
-        <v>0.97009999999999996</v>
+        <v>0.95540000000000003</v>
       </c>
       <c r="G24">
-        <v>0.92600000000000005</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="H24">
-        <v>0.98570000000000002</v>
+        <v>0.98419999999999996</v>
       </c>
       <c r="I24">
-        <v>0.98599999999999999</v>
+        <v>0.98450000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -4503,25 +6169,25 @@
         <v>0.25</v>
       </c>
       <c r="C26">
-        <v>0.92659999999999998</v>
+        <v>0.92369999999999997</v>
       </c>
       <c r="D26">
-        <v>0.88580000000000003</v>
+        <v>0.87680000000000002</v>
       </c>
       <c r="E26">
-        <v>0.96719999999999995</v>
+        <v>0.97070000000000001</v>
       </c>
       <c r="F26">
-        <v>0.96430000000000005</v>
+        <v>0.96809999999999996</v>
       </c>
       <c r="G26">
-        <v>0.92330000000000001</v>
+        <v>0.91990000000000005</v>
       </c>
       <c r="H26">
-        <v>0.98680000000000001</v>
+        <v>0.98819999999999997</v>
       </c>
       <c r="I26">
-        <v>0.98680000000000001</v>
+        <v>0.98750000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -4532,54 +6198,54 @@
         <v>0.5</v>
       </c>
       <c r="C27">
-        <v>0.93120000000000003</v>
+        <v>0.91220000000000001</v>
       </c>
       <c r="D27">
-        <v>0.88470000000000004</v>
+        <v>0.84750000000000003</v>
       </c>
       <c r="E27">
-        <v>0.97850000000000004</v>
+        <v>0.97709999999999997</v>
       </c>
       <c r="F27">
-        <v>0.97699999999999998</v>
+        <v>0.97370000000000001</v>
       </c>
       <c r="G27">
-        <v>0.92759999999999998</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="H27">
-        <v>0.98960000000000004</v>
+        <v>0.98829999999999996</v>
       </c>
       <c r="I27">
-        <v>0.98950000000000005</v>
+        <v>0.98780000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>4</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>0.9234</v>
+        <v>0.91349999999999998</v>
       </c>
       <c r="D28">
-        <v>0.88</v>
+        <v>0.85350000000000004</v>
       </c>
       <c r="E28">
-        <v>0.9667</v>
+        <v>0.97360000000000002</v>
       </c>
       <c r="F28">
-        <v>0.96350000000000002</v>
+        <v>0.9698</v>
       </c>
       <c r="G28">
-        <v>0.91969999999999996</v>
+        <v>0.90759999999999996</v>
       </c>
       <c r="H28">
-        <v>0.98399999999999999</v>
+        <v>0.98580000000000001</v>
       </c>
       <c r="I28">
-        <v>0.97919999999999996</v>
+        <v>0.98029999999999995</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -4590,25 +6256,25 @@
         <v>2</v>
       </c>
       <c r="C29">
-        <v>0.94010000000000005</v>
+        <v>0.92810000000000004</v>
       </c>
       <c r="D29">
-        <v>0.91180000000000005</v>
+        <v>0.88290000000000002</v>
       </c>
       <c r="E29">
-        <v>0.96860000000000002</v>
+        <v>0.97309999999999997</v>
       </c>
       <c r="F29">
-        <v>0.96709999999999996</v>
+        <v>0.97019999999999995</v>
       </c>
       <c r="G29">
-        <v>0.93830000000000002</v>
+        <v>0.92430000000000001</v>
       </c>
       <c r="H29">
-        <v>0.99029999999999996</v>
+        <v>0.98960000000000004</v>
       </c>
       <c r="I29">
-        <v>0.98980000000000001</v>
+        <v>0.9889</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4619,102 +6285,73 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>0.93540000000000001</v>
+        <v>0.93310000000000004</v>
       </c>
       <c r="D30">
-        <v>0.90659999999999996</v>
+        <v>0.89470000000000005</v>
       </c>
       <c r="E30">
-        <v>0.96450000000000002</v>
+        <v>0.97140000000000004</v>
       </c>
       <c r="F30">
-        <v>0.96260000000000001</v>
+        <v>0.96889999999999998</v>
       </c>
       <c r="G30">
-        <v>0.93359999999999999</v>
+        <v>0.93020000000000003</v>
       </c>
       <c r="H30">
-        <v>0.98680000000000001</v>
+        <v>0.98660000000000003</v>
       </c>
       <c r="I30">
-        <v>0.98640000000000005</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+        <v>0.98619999999999997</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <f>MAX(C2:C30)</f>
-        <v>0.94350000000000001</v>
-      </c>
-      <c r="G32">
+        <v>0.94430000000000003</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3">
         <f>MAX(G2:G30)</f>
-        <v>0.94230000000000003</v>
-      </c>
-      <c r="H32">
+        <v>0.94210000000000005</v>
+      </c>
+      <c r="H32" s="3">
         <f>MAX(H2:H30)</f>
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="I32">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="I32" s="3">
         <f>MAX(I2:I30)</f>
-        <v>0.99150000000000005</v>
+        <v>0.99099999999999999</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <f>MIN(C2:C30)</f>
-        <v>0.8992</v>
-      </c>
-      <c r="G33">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3">
         <f>MIN(G2:G30)</f>
-        <v>0.8901</v>
-      </c>
-      <c r="H33">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="H33" s="3">
         <f>MIN(H2:H30)</f>
-        <v>0.98360000000000003</v>
-      </c>
-      <c r="I33">
+        <v>0.98419999999999996</v>
+      </c>
+      <c r="I33" s="3">
         <f>MIN(I2:I30)</f>
-        <v>0.97399999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="17">
-        <f>AVERAGE(C2:C30)</f>
-        <v>0.9270440000000002</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17">
-        <f t="shared" ref="G34:I34" si="0">AVERAGE(G2:G30)</f>
-        <v>0.92355599999999993</v>
-      </c>
-      <c r="H34" s="17">
-        <f t="shared" si="0"/>
-        <v>0.98767199999999999</v>
-      </c>
-      <c r="I34" s="17">
-        <f t="shared" si="0"/>
-        <v>0.986348</v>
+        <v>0.97650000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -4745,10 +6382,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -4835,7 +6472,7 @@
       <c r="A4" s="4">
         <v>8</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>32</v>
       </c>
       <c r="C4">
@@ -4861,10 +6498,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>8</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>64</v>
       </c>
       <c r="C5">
@@ -4950,10 +6587,10 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="19"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -5020,7 +6657,7 @@
       <c r="A11" s="4">
         <v>16</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>32</v>
       </c>
       <c r="C11">
@@ -5067,10 +6704,10 @@
       <c r="G12">
         <v>0.91490000000000005</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>0.99060000000000004</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <v>0.99019999999999997</v>
       </c>
     </row>
@@ -5135,10 +6772,10 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -5205,7 +6842,7 @@
       <c r="A18" s="4">
         <v>32</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>32</v>
       </c>
       <c r="C18">
@@ -5320,10 +6957,10 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -5390,7 +7027,7 @@
       <c r="A25" s="4">
         <v>64</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>32</v>
       </c>
       <c r="C25">
@@ -5416,31 +7053,31 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+      <c r="A26" s="12">
         <v>64</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>64</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="14">
         <v>0.94869999999999999</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <v>0.92759999999999998</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="13">
         <v>0.96919999999999995</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="13">
         <v>0.96799999999999997</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="14">
         <v>0.94710000000000005</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="13">
         <v>0.98870000000000002</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="13">
         <v>0.98760000000000003</v>
       </c>
     </row>
@@ -5474,19 +7111,19 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+      <c r="A28" s="19">
         <v>64</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="19">
         <v>256</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -5561,7 +7198,7 @@
       <c r="A32" s="4">
         <v>128</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>32</v>
       </c>
       <c r="C32">
@@ -5616,34 +7253,34 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
+      <c r="A34" s="19">
         <v>128</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="19">
         <v>128</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
+      <c r="A35" s="19">
         <v>128</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="19">
         <v>256</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
@@ -5718,7 +7355,7 @@
       <c r="A39" s="4">
         <v>256</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <v>32</v>
       </c>
       <c r="C39">
@@ -5744,64 +7381,64 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="20">
+      <c r="A40" s="19">
         <v>256</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="19">
         <v>64</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="20">
+      <c r="A41" s="19">
         <v>256</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="19">
         <v>128</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="20">
+      <c r="A42" s="19">
         <v>256</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="19">
         <v>256</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="2">
@@ -5825,7 +7462,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C45" s="3">
@@ -5856,10 +7493,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:H19"/>
+      <selection activeCell="J23" sqref="J23:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5871,49 +7508,18 @@
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -5937,679 +7543,901 @@
       <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="19">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
         <v>5</v>
       </c>
-      <c r="K2">
-        <v>0.9214</v>
-      </c>
-      <c r="L2">
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="M2">
-        <v>0.97619999999999996</v>
-      </c>
-      <c r="N2">
-        <v>0.97309999999999997</v>
-      </c>
-      <c r="O2">
-        <v>0.91610000000000003</v>
-      </c>
-      <c r="P2">
-        <v>0.99070000000000003</v>
-      </c>
-      <c r="Q2">
-        <v>0.99009999999999998</v>
-      </c>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
-        <v>5</v>
-      </c>
-      <c r="J3" s="4">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <v>0.91949999999999998</v>
-      </c>
-      <c r="L3">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="M3">
-        <v>0.97519999999999996</v>
-      </c>
-      <c r="N3">
-        <v>0.97170000000000001</v>
-      </c>
-      <c r="O3">
-        <v>0.91400000000000003</v>
-      </c>
-      <c r="P3">
-        <v>0.99060000000000004</v>
-      </c>
-      <c r="Q3">
-        <v>0.99</v>
-      </c>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.93779999999999997</v>
+      </c>
+      <c r="C3">
+        <v>0.90349999999999997</v>
+      </c>
+      <c r="D3">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.96950000000000003</v>
+      </c>
+      <c r="F3">
+        <v>0.93459999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="H3">
+        <v>0.99019999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>10</v>
       </c>
-      <c r="J4" s="27">
+      <c r="B4">
+        <v>0.92630000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.88219999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="E4">
+        <v>0.9677</v>
+      </c>
+      <c r="F4">
+        <v>0.92259999999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="H4">
+        <v>0.98870000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
         <v>15</v>
       </c>
-      <c r="K4" s="28">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="L4" s="29">
-        <v>0.91180000000000005</v>
-      </c>
-      <c r="M4" s="29">
-        <v>0.96189999999999998</v>
-      </c>
-      <c r="N4" s="29">
-        <v>0.96020000000000005</v>
-      </c>
-      <c r="O4" s="28">
-        <v>0.93510000000000004</v>
-      </c>
-      <c r="P4" s="29">
-        <v>0.98770000000000002</v>
-      </c>
-      <c r="Q4" s="29">
-        <v>0.98680000000000001</v>
-      </c>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>15</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="B5" s="35">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="C5" s="34">
+        <v>0.92230000000000001</v>
+      </c>
+      <c r="D5" s="34">
+        <v>0.95550000000000002</v>
+      </c>
+      <c r="E5" s="34">
+        <v>0.95489999999999997</v>
+      </c>
+      <c r="F5" s="35">
+        <v>0.93789999999999996</v>
+      </c>
+      <c r="G5" s="34">
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="H5" s="34">
+        <v>0.98619999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
         <v>20</v>
       </c>
-      <c r="K5">
-        <v>0.92530000000000001</v>
-      </c>
-      <c r="L5">
-        <v>0.88160000000000005</v>
-      </c>
-      <c r="M5">
-        <v>0.96909999999999996</v>
-      </c>
-      <c r="N5">
-        <v>0.96660000000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.92190000000000005</v>
-      </c>
-      <c r="P5">
-        <v>0.98919999999999997</v>
-      </c>
-      <c r="Q5">
-        <v>0.98880000000000001</v>
-      </c>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>20</v>
-      </c>
-      <c r="J6" s="4">
-        <v>25</v>
-      </c>
-      <c r="K6">
-        <v>0.92789999999999995</v>
-      </c>
-      <c r="L6">
-        <v>0.87860000000000005</v>
-      </c>
-      <c r="M6">
-        <v>0.97709999999999997</v>
-      </c>
-      <c r="N6">
-        <v>0.9748</v>
-      </c>
-      <c r="O6">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="P6" s="12">
-        <v>0.99160000000000004</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>0.99129999999999996</v>
-      </c>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="16">
+        <v>0.9234</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.8841</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.96350000000000002</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.96179999999999999</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.98650000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>25</v>
       </c>
-      <c r="J7" s="4">
-        <v>30</v>
-      </c>
-      <c r="K7">
-        <v>0.92710000000000004</v>
-      </c>
-      <c r="L7">
-        <v>0.8881</v>
-      </c>
-      <c r="M7">
-        <v>0.96519999999999995</v>
-      </c>
-      <c r="N7">
-        <v>0.9627</v>
-      </c>
-      <c r="O7">
-        <v>0.92269999999999996</v>
-      </c>
-      <c r="P7">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="Q7">
-        <v>0.98819999999999997</v>
-      </c>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.93569999999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="D7">
+        <v>0.96419999999999995</v>
+      </c>
+      <c r="E7">
+        <v>0.96220000000000006</v>
+      </c>
+      <c r="F7">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="G7">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="H7">
+        <v>0.98429999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>30</v>
       </c>
-      <c r="J8" s="4">
-        <v>35</v>
-      </c>
-      <c r="K8">
-        <v>0.91559999999999997</v>
-      </c>
-      <c r="L8">
-        <v>0.86029999999999995</v>
-      </c>
-      <c r="M8">
-        <v>0.9708</v>
-      </c>
-      <c r="N8">
-        <v>0.96750000000000003</v>
-      </c>
-      <c r="O8">
-        <v>0.91039999999999999</v>
-      </c>
-      <c r="P8">
-        <v>0.98919999999999997</v>
-      </c>
-      <c r="Q8">
-        <v>0.98870000000000002</v>
-      </c>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="C8">
+        <v>0.89249999999999996</v>
+      </c>
+      <c r="D8">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="E8">
+        <v>0.97330000000000005</v>
+      </c>
+      <c r="F8">
+        <v>0.93069999999999997</v>
+      </c>
+      <c r="G8">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="H8">
+        <v>0.98650000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>35</v>
       </c>
-      <c r="J9" s="10">
+      <c r="B9">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.89990000000000003</v>
+      </c>
+      <c r="D9">
+        <v>0.96679999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="F9">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="H9">
+        <v>0.98660000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>40</v>
       </c>
-      <c r="K9">
-        <v>0.92549999999999999</v>
-      </c>
-      <c r="L9">
-        <v>0.8821</v>
-      </c>
-      <c r="M9">
-        <v>0.96879999999999999</v>
-      </c>
-      <c r="N9">
-        <v>0.96589999999999998</v>
-      </c>
-      <c r="O9">
-        <v>0.92179999999999995</v>
-      </c>
-      <c r="P9">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="Q9">
-        <v>0.98819999999999997</v>
-      </c>
-      <c r="R9" s="7"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>40</v>
-      </c>
-      <c r="J10" s="4">
-        <v>45</v>
-      </c>
-      <c r="K10">
-        <v>0.93589999999999995</v>
-      </c>
-      <c r="L10">
-        <v>0.90669999999999995</v>
-      </c>
-      <c r="M10">
-        <v>0.96440000000000003</v>
-      </c>
-      <c r="N10">
-        <v>0.96160000000000001</v>
-      </c>
-      <c r="O10">
-        <v>0.93310000000000004</v>
-      </c>
-      <c r="P10">
-        <v>0.9899</v>
-      </c>
-      <c r="Q10">
-        <v>0.98929999999999996</v>
-      </c>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.88329999999999997</v>
+      </c>
+      <c r="D10">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="E10">
+        <v>0.97619999999999996</v>
+      </c>
+      <c r="F10">
+        <v>0.92710000000000004</v>
+      </c>
+      <c r="G10">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="H10">
+        <v>0.98939999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45</v>
       </c>
-      <c r="J11" s="4">
-        <v>50</v>
-      </c>
-      <c r="K11">
-        <v>0.92549999999999999</v>
-      </c>
-      <c r="L11">
-        <v>0.89290000000000003</v>
-      </c>
-      <c r="M11">
-        <v>0.95850000000000002</v>
-      </c>
-      <c r="N11">
-        <v>0.95669999999999999</v>
-      </c>
-      <c r="O11">
-        <v>0.92259999999999998</v>
-      </c>
-      <c r="P11">
-        <v>0.9839</v>
-      </c>
-      <c r="Q11">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="D11">
+        <v>0.96509999999999996</v>
+      </c>
+      <c r="E11">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="F11">
+        <v>0.92759999999999998</v>
+      </c>
+      <c r="G11">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="H11">
+        <v>0.97140000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>50</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J13" s="12" t="s">
+      <c r="B12">
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="C12">
+        <v>0.87849999999999995</v>
+      </c>
+      <c r="D12">
+        <v>0.97289999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.97009999999999996</v>
+      </c>
+      <c r="F12">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="G12">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="H12">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="K13">
-        <f>MAX(K2:K11)</f>
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="O13">
-        <f t="shared" ref="O13:Q13" si="0">MAX(O2:O11)</f>
-        <v>0.93510000000000004</v>
-      </c>
-      <c r="P13">
+      <c r="B14" s="3">
+        <f>MAX(B3:B12)</f>
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
+        <f t="shared" ref="F14:H14" si="0">MAX(F3:F12)</f>
+        <v>0.93789999999999996</v>
+      </c>
+      <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>0.99160000000000004</v>
-      </c>
-      <c r="Q13">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="H14" s="3">
         <f t="shared" si="0"/>
-        <v>0.99129999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="12" t="s">
+        <v>0.99019999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="K14">
-        <f>MIN(K2:K11)</f>
-        <v>0.91559999999999997</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ref="O14:Q14" si="1">MIN(O2:O11)</f>
-        <v>0.91039999999999999</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="1"/>
-        <v>0.9839</v>
-      </c>
-      <c r="Q14">
+      <c r="B15" s="3">
+        <f>MIN(B3:B12)</f>
+        <v>0.9234</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
+        <f t="shared" ref="F15:H15" si="1">MIN(F3:F12)</f>
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="G15" s="3">
         <f t="shared" si="1"/>
         <v>0.98299999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="H15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.97140000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="J18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B16">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>5</v>
+      </c>
+      <c r="B19">
         <v>0.93410000000000004</v>
       </c>
-      <c r="C16">
+      <c r="C19">
         <v>0.89529999999999998</v>
       </c>
-      <c r="D16">
+      <c r="D19">
         <v>0.97230000000000005</v>
       </c>
-      <c r="E16">
+      <c r="E19">
         <v>0.97050000000000003</v>
       </c>
-      <c r="F16">
+      <c r="F19">
         <v>0.93079999999999996</v>
       </c>
-      <c r="G16">
+      <c r="G19">
         <v>0.98470000000000002</v>
       </c>
-      <c r="H16">
+      <c r="H19">
         <v>0.98480000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="J19">
+        <v>0.93540000000000001</v>
+      </c>
+      <c r="K19">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="L19">
+        <v>0.97209999999999996</v>
+      </c>
+      <c r="M19">
+        <v>0.96940000000000004</v>
+      </c>
+      <c r="N19">
+        <v>0.93179999999999996</v>
+      </c>
+      <c r="O19">
+        <v>0.98960000000000004</v>
+      </c>
+      <c r="P19">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>10</v>
       </c>
-      <c r="B17">
+      <c r="B20">
         <v>0.93389999999999995</v>
       </c>
-      <c r="C17">
+      <c r="C20">
         <v>0.90269999999999995</v>
       </c>
-      <c r="D17">
+      <c r="D20">
         <v>0.96509999999999996</v>
       </c>
-      <c r="E17">
+      <c r="E20">
         <v>0.96289999999999998</v>
       </c>
-      <c r="F17">
+      <c r="F20">
         <v>0.93159999999999998</v>
       </c>
-      <c r="G17">
+      <c r="G20">
         <v>0.98499999999999999</v>
       </c>
-      <c r="H17">
+      <c r="H20">
         <v>0.98580000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="J20">
+        <v>0.93120000000000003</v>
+      </c>
+      <c r="K20">
+        <v>0.88990000000000002</v>
+      </c>
+      <c r="L20">
+        <v>0.9738</v>
+      </c>
+      <c r="M20">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="N20">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="P20">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B21">
         <v>0.92369999999999997</v>
       </c>
-      <c r="C18">
+      <c r="C21">
         <v>0.87880000000000003</v>
       </c>
-      <c r="D18">
+      <c r="D21">
         <v>0.96870000000000001</v>
       </c>
-      <c r="E18">
+      <c r="E21">
         <v>0.9657</v>
       </c>
-      <c r="F18">
+      <c r="F21">
         <v>0.91990000000000005</v>
       </c>
-      <c r="G18">
+      <c r="G21">
         <v>0.9869</v>
       </c>
-      <c r="H18">
+      <c r="H21">
         <v>0.98740000000000006</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+      <c r="J21">
+        <v>0.93020000000000003</v>
+      </c>
+      <c r="K21">
+        <v>0.89159999999999995</v>
+      </c>
+      <c r="L21">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="M21">
+        <v>0.96619999999999995</v>
+      </c>
+      <c r="N21">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="O21">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="P21">
+        <v>0.98350000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="33">
         <v>20</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B22" s="35">
         <v>0.94110000000000005</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C22" s="34">
         <v>0.92110000000000003</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D22" s="34">
         <v>0.96099999999999997</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E22" s="34">
         <v>0.95930000000000004</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F22" s="35">
         <v>0.93979999999999997</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G22" s="34">
         <v>0.98670000000000002</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H22" s="34">
         <v>0.98550000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="J22">
+        <v>0.92789999999999995</v>
+      </c>
+      <c r="K22">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="L22">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="M22">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="N22">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="O22" s="11">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="P22" s="11">
+        <v>0.99099999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>25</v>
       </c>
-      <c r="B20">
+      <c r="B23">
         <v>0.93310000000000004</v>
       </c>
-      <c r="C20">
+      <c r="C23">
         <v>0.89200000000000002</v>
       </c>
-      <c r="D20">
+      <c r="D23">
         <v>0.97319999999999995</v>
       </c>
-      <c r="E20">
+      <c r="E23">
         <v>0.97030000000000005</v>
       </c>
-      <c r="F20">
+      <c r="F23">
         <v>0.92920000000000003</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G23" s="11">
         <v>0.99119999999999997</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H23" s="11">
         <v>0.99080000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="J23" s="11">
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="L23">
+        <v>0.96970000000000001</v>
+      </c>
+      <c r="M23">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="O23">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="P23">
+        <v>0.97719999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>30</v>
       </c>
-      <c r="B21">
+      <c r="B24">
         <v>0.92600000000000005</v>
       </c>
-      <c r="C21">
+      <c r="C24">
         <v>0.87739999999999996</v>
       </c>
-      <c r="D21">
+      <c r="D24">
         <v>0.97399999999999998</v>
       </c>
-      <c r="E21">
+      <c r="E24">
         <v>0.97150000000000003</v>
       </c>
-      <c r="F21">
+      <c r="F24">
         <v>0.92149999999999999</v>
       </c>
-      <c r="G21">
+      <c r="G24">
         <v>0.99050000000000005</v>
       </c>
-      <c r="H21">
+      <c r="H24">
         <v>0.99029999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="J24">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="K24">
+        <v>0.88729999999999998</v>
+      </c>
+      <c r="L24">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="M24">
+        <v>0.97009999999999996</v>
+      </c>
+      <c r="N24">
+        <v>0.92669999999999997</v>
+      </c>
+      <c r="O24">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="P24">
+        <v>0.98909999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>35</v>
       </c>
-      <c r="B22">
+      <c r="B25">
         <v>0.91410000000000002</v>
       </c>
-      <c r="C22">
+      <c r="C25">
         <v>0.84630000000000005</v>
       </c>
-      <c r="D22">
+      <c r="D25">
         <v>0.98129999999999995</v>
       </c>
-      <c r="E22">
+      <c r="E25">
         <v>0.97840000000000005</v>
       </c>
-      <c r="F22">
+      <c r="F25">
         <v>0.90739999999999998</v>
       </c>
-      <c r="G22">
+      <c r="G25">
         <v>0.99039999999999995</v>
       </c>
-      <c r="H22">
+      <c r="H25">
         <v>0.98980000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="J25">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="K25">
+        <v>0.87619999999999998</v>
+      </c>
+      <c r="L25">
+        <v>0.9748</v>
+      </c>
+      <c r="M25">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="N25">
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="O25">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="P25">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>40</v>
       </c>
-      <c r="B23">
+      <c r="B26">
         <v>0.92679999999999996</v>
       </c>
-      <c r="C23">
+      <c r="C26">
         <v>0.88639999999999997</v>
       </c>
-      <c r="D23">
+      <c r="D26">
         <v>0.96760000000000002</v>
       </c>
-      <c r="E23">
+      <c r="E26">
         <v>0.96609999999999996</v>
       </c>
-      <c r="F23">
+      <c r="F26">
         <v>0.92310000000000003</v>
       </c>
-      <c r="G23">
+      <c r="G26">
         <v>0.98899999999999999</v>
       </c>
-      <c r="H23">
+      <c r="H26">
         <v>0.98839999999999995</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="J26">
+        <v>0.9234</v>
+      </c>
+      <c r="K26">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="L26">
+        <v>0.95620000000000005</v>
+      </c>
+      <c r="M26">
+        <v>0.9556</v>
+      </c>
+      <c r="N26">
+        <v>0.91930000000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="P26">
+        <v>0.98709999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>45</v>
       </c>
-      <c r="B24">
+      <c r="B27">
         <v>0.9083</v>
       </c>
-      <c r="C24">
+      <c r="C27">
         <v>0.84540000000000004</v>
       </c>
-      <c r="D24">
+      <c r="D27">
         <v>0.97299999999999998</v>
       </c>
-      <c r="E24">
+      <c r="E27">
         <v>0.97030000000000005</v>
       </c>
-      <c r="F24">
+      <c r="F27">
         <v>0.90280000000000005</v>
       </c>
-      <c r="G24">
+      <c r="G27">
         <v>0.98740000000000006</v>
       </c>
-      <c r="H24">
+      <c r="H27">
         <v>0.98529999999999995</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="J27">
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="K27">
+        <v>0.85680000000000001</v>
+      </c>
+      <c r="L27">
+        <v>0.97509999999999997</v>
+      </c>
+      <c r="M27">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="N27">
+        <v>0.9103</v>
+      </c>
+      <c r="O27">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="P27">
+        <v>0.9869</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>50</v>
       </c>
-      <c r="B25">
+      <c r="B28">
         <v>0.9224</v>
       </c>
-      <c r="C25">
+      <c r="C28">
         <v>0.88249999999999995</v>
       </c>
-      <c r="D25">
+      <c r="D28">
         <v>0.96350000000000002</v>
       </c>
-      <c r="E25">
+      <c r="E28">
         <v>0.9617</v>
       </c>
-      <c r="F25">
+      <c r="F28">
         <v>0.91979999999999995</v>
       </c>
-      <c r="G25">
+      <c r="G28">
         <v>0.98509999999999998</v>
       </c>
-      <c r="H25">
+      <c r="H28">
         <v>0.98499999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="J28">
+        <v>0.93020000000000003</v>
+      </c>
+      <c r="K28">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="L28">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="M28">
+        <v>0.96609999999999996</v>
+      </c>
+      <c r="N28">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="O28">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="P28">
+        <v>0.98939999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B27">
-        <f>MAX(B16:B25)</f>
+      <c r="B30" s="42">
+        <f>MAX(B19:B28)</f>
         <v>0.94110000000000005</v>
       </c>
-      <c r="F27">
-        <f t="shared" ref="F27:H27" si="2">MAX(F16:F25)</f>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42">
+        <f t="shared" ref="F30:H30" si="2">MAX(F19:F28)</f>
         <v>0.93979999999999997</v>
       </c>
-      <c r="G27">
+      <c r="G30" s="42">
         <f t="shared" si="2"/>
         <v>0.99119999999999997</v>
       </c>
-      <c r="H27">
+      <c r="H30" s="42">
         <f t="shared" si="2"/>
         <v>0.99080000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="J30">
+        <f>MAX(J19:J28)</f>
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ref="N30:P30" si="3">MAX(N19:N28)</f>
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="3"/>
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="3"/>
+        <v>0.99099999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B28">
-        <f>MIN(B16:B25)</f>
+      <c r="B31" s="42">
+        <f>MIN(B19:B28)</f>
         <v>0.9083</v>
       </c>
-      <c r="F28">
-        <f t="shared" ref="F28:H28" si="3">MIN(F16:F25)</f>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42">
+        <f t="shared" ref="F31:H31" si="4">MIN(F19:F28)</f>
         <v>0.90280000000000005</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="3"/>
+      <c r="G31" s="42">
+        <f t="shared" si="4"/>
         <v>0.98470000000000002</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="3"/>
+      <c r="H31" s="42">
+        <f t="shared" si="4"/>
         <v>0.98480000000000001</v>
       </c>
     </row>
@@ -6639,7 +8467,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -6665,28 +8493,28 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="27">
         <v>0.93179999999999996</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="28">
         <v>0.89990000000000003</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="28">
         <v>0.96389999999999998</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="28">
         <v>0.96199999999999997</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="28">
         <v>0.92920000000000003</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="28">
         <v>0.98750000000000004</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="28">
         <v>0.98670000000000002</v>
       </c>
     </row>
@@ -6709,10 +8537,10 @@
       <c r="F3">
         <v>0.90990000000000004</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>0.98939999999999995</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>0.98899999999999999</v>
       </c>
     </row>
@@ -6784,10 +8612,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -6813,10 +8641,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>0</v>
       </c>
       <c r="C2">
@@ -6842,10 +8670,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>0</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>10</v>
       </c>
       <c r="C3">
@@ -6871,10 +8699,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>20</v>
       </c>
       <c r="C4">
@@ -6900,10 +8728,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>0</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>30</v>
       </c>
       <c r="C5">
@@ -6929,10 +8757,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>0.1</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>0</v>
       </c>
       <c r="C6">
@@ -6958,10 +8786,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>0.1</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>10</v>
       </c>
       <c r="C7">
@@ -6987,10 +8815,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>0.1</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>20</v>
       </c>
       <c r="C8">
@@ -7016,10 +8844,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>0.1</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>30</v>
       </c>
       <c r="C9">
@@ -7045,10 +8873,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>0.2</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>0</v>
       </c>
       <c r="C10">
@@ -7074,10 +8902,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>0.2</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>10</v>
       </c>
       <c r="C11">
@@ -7103,10 +8931,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>0.2</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>20</v>
       </c>
       <c r="C12">
@@ -7132,10 +8960,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>0.2</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>30</v>
       </c>
       <c r="C13">
@@ -7161,10 +8989,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>0.3</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>0</v>
       </c>
       <c r="C14">
@@ -7190,39 +9018,39 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>0.3</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="20">
         <v>10</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <v>0.94350000000000001</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>0.92410000000000003</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>0.9627</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <v>0.96199999999999997</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <v>0.94240000000000002</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="16">
         <v>0.98899999999999999</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="16">
         <v>0.98839999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>0.3</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>20</v>
       </c>
       <c r="C16">
@@ -7248,10 +9076,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>0.3</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>30</v>
       </c>
       <c r="C17">
@@ -7277,39 +9105,39 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>0.4</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>0</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>0.92190000000000005</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <v>0.87509999999999999</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <v>0.96960000000000002</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>0.96689999999999998</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="16">
         <v>0.91859999999999997</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="17">
         <v>0.99060000000000004</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="17">
         <v>0.99029999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>0.4</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>10</v>
       </c>
       <c r="C19">
@@ -7335,10 +9163,10 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>0.4</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>20</v>
       </c>
       <c r="C20">
@@ -7364,10 +9192,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>0.4</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>30</v>
       </c>
       <c r="C21">
@@ -7393,11 +9221,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C23">
@@ -7418,7 +9246,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C24">
@@ -7464,10 +9292,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -7491,7 +9319,7 @@
       <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -7502,10 +9330,10 @@
       <c r="B2">
         <v>8</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>0.93930000000000002</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="28">
         <v>0.92949999999999999</v>
       </c>
       <c r="E2">
@@ -7514,7 +9342,7 @@
       <c r="F2">
         <v>0.94810000000000005</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>0.93840000000000001</v>
       </c>
       <c r="H2">
@@ -7633,10 +9461,10 @@
       <c r="G6">
         <v>0.92059999999999997</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <v>0.99</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <v>0.98929999999999996</v>
       </c>
     </row>
@@ -7670,7 +9498,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C9">
@@ -7726,10 +9554,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -7753,10 +9581,10 @@
       <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="6" t="s">
@@ -7897,7 +9725,7 @@
       <c r="A4" s="4">
         <v>8</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>32</v>
       </c>
       <c r="C4">
@@ -7924,7 +9752,7 @@
       <c r="K4" s="4">
         <v>8</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="9">
         <v>32</v>
       </c>
       <c r="M4">
@@ -7950,37 +9778,37 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="42">
+      <c r="A5" s="41">
         <v>8</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="41">
         <v>64</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="35">
         <v>0.93799999999999994</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="34">
         <v>0.91059999999999997</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="34">
         <v>0.96550000000000002</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="34">
         <v>0.96389999999999998</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="35">
         <v>0.93600000000000005</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="34">
         <v>0.98540000000000005</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="34">
         <v>0.98260000000000003</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>8</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="9">
         <v>64</v>
       </c>
       <c r="M5">
@@ -8033,19 +9861,19 @@
       <c r="I6">
         <v>0.98570000000000002</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="19">
         <v>8</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="19">
         <v>128</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -8105,7 +9933,7 @@
       <c r="R8">
         <v>0.99009999999999998</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="11">
         <v>0.99029999999999996</v>
       </c>
     </row>
@@ -8169,7 +9997,7 @@
       <c r="A10" s="4">
         <v>16</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>32</v>
       </c>
       <c r="C10">
@@ -8196,7 +10024,7 @@
       <c r="K10" s="4">
         <v>16</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <v>32</v>
       </c>
       <c r="M10">
@@ -8305,19 +10133,19 @@
       <c r="I12">
         <v>0.98939999999999995</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="19">
         <v>16</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="19">
         <v>128</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -8374,7 +10202,7 @@
       <c r="Q14">
         <v>0.91839999999999999</v>
       </c>
-      <c r="R14" s="12">
+      <c r="R14" s="11">
         <v>0.99029999999999996</v>
       </c>
       <c r="S14">
@@ -8441,7 +10269,7 @@
       <c r="A16" s="4">
         <v>32</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>32</v>
       </c>
       <c r="C16">
@@ -8468,7 +10296,7 @@
       <c r="K16" s="4">
         <v>32</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="9">
         <v>32</v>
       </c>
       <c r="M16">
@@ -8577,19 +10405,19 @@
       <c r="I18">
         <v>0.98829999999999996</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="19">
         <v>32</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="19">
         <v>128</v>
       </c>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -8604,7 +10432,7 @@
       <c r="B20" s="4">
         <v>8</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="32">
         <v>0.91279999999999994</v>
       </c>
       <c r="D20">
@@ -8687,7 +10515,7 @@
       <c r="L21" s="4">
         <v>16</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="11">
         <v>0.94140000000000001</v>
       </c>
       <c r="N21">
@@ -8699,7 +10527,7 @@
       <c r="P21">
         <v>0.96489999999999998</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="11">
         <v>0.94010000000000005</v>
       </c>
       <c r="R21">
@@ -8713,7 +10541,7 @@
       <c r="A22" s="4">
         <v>64</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>32</v>
       </c>
       <c r="C22">
@@ -8740,7 +10568,7 @@
       <c r="K22" s="4">
         <v>64</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="9">
         <v>32</v>
       </c>
       <c r="M22">
@@ -8849,19 +10677,19 @@
       <c r="I24">
         <v>0.98919999999999997</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="19">
         <v>64</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="19">
         <v>128</v>
       </c>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
@@ -8931,7 +10759,7 @@
       <c r="A28" s="4">
         <v>128</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>32</v>
       </c>
       <c r="C28">
@@ -8978,10 +10806,10 @@
       <c r="G29" s="1">
         <v>0.9294</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="31">
         <v>0.99209999999999998</v>
       </c>
-      <c r="I29" s="32">
+      <c r="I29" s="31">
         <v>0.9919</v>
       </c>
     </row>
@@ -9022,7 +10850,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="2">
@@ -9045,7 +10873,7 @@
         <v>0.9919</v>
       </c>
       <c r="K32" s="4"/>
-      <c r="L32" s="23" t="s">
+      <c r="L32" s="22" t="s">
         <v>22</v>
       </c>
       <c r="M32" s="3">
@@ -9070,7 +10898,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33"/>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="3">
@@ -9093,7 +10921,7 @@
         <v>0.97740000000000005</v>
       </c>
       <c r="K33" s="5"/>
-      <c r="L33" s="23" t="s">
+      <c r="L33" s="22" t="s">
         <v>23</v>
       </c>
       <c r="M33" s="3">
@@ -9124,19 +10952,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C3" sqref="C3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -9168,13 +10996,55 @@
       <c r="B2">
         <v>0.25</v>
       </c>
+      <c r="C2">
+        <v>0.92759999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.88039999999999996</v>
+      </c>
+      <c r="E2">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="F2">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="G2">
+        <v>0.92320000000000002</v>
+      </c>
+      <c r="H2">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="I2">
+        <v>0.98960000000000004</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="34">
         <v>0.25</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="34">
         <v>0.5</v>
+      </c>
+      <c r="C3" s="35">
+        <v>0.94610000000000005</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="E3" s="34">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="F3" s="34">
+        <v>0.96489999999999998</v>
+      </c>
+      <c r="G3" s="35">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="H3" s="35">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="I3" s="35">
+        <v>0.98740000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -9184,6 +11054,27 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="D4">
+        <v>0.88929999999999998</v>
+      </c>
+      <c r="E4">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="F4">
+        <v>0.96350000000000002</v>
+      </c>
+      <c r="G4">
+        <v>0.92379999999999995</v>
+      </c>
+      <c r="H4">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="I4">
+        <v>0.97789999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -9192,6 +11083,27 @@
       <c r="B5">
         <v>2</v>
       </c>
+      <c r="C5">
+        <v>0.92789999999999995</v>
+      </c>
+      <c r="D5">
+        <v>0.89129999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.9657</v>
+      </c>
+      <c r="F5">
+        <v>0.96440000000000003</v>
+      </c>
+      <c r="G5">
+        <v>0.92569999999999997</v>
+      </c>
+      <c r="H5">
+        <v>0.9869</v>
+      </c>
+      <c r="I5">
+        <v>0.98650000000000004</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -9200,13 +11112,55 @@
       <c r="B6">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="D6">
+        <v>0.85089999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.99070000000000003</v>
+      </c>
+      <c r="I6">
+        <v>0.99060000000000004</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="16">
         <v>0.5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="16">
         <v>0.25</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.9657</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0.96419999999999995</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0.92779999999999996</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0.98950000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -9216,6 +11170,27 @@
       <c r="B9">
         <v>0.5</v>
       </c>
+      <c r="C9">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="D9">
+        <v>0.91969999999999996</v>
+      </c>
+      <c r="E9">
+        <v>0.96840000000000004</v>
+      </c>
+      <c r="F9">
+        <v>0.9667</v>
+      </c>
+      <c r="G9">
+        <v>0.94220000000000004</v>
+      </c>
+      <c r="H9">
+        <v>0.98319999999999996</v>
+      </c>
+      <c r="I9">
+        <v>0.98599999999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -9224,6 +11199,27 @@
       <c r="B10">
         <v>1</v>
       </c>
+      <c r="C10">
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.92649999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.95569999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="I10">
+        <v>0.98499999999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -9232,6 +11228,27 @@
       <c r="B11">
         <v>2</v>
       </c>
+      <c r="C11">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.95909999999999995</v>
+      </c>
+      <c r="F11">
+        <v>0.95650000000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="I11">
+        <v>0.98460000000000003</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -9240,6 +11257,27 @@
       <c r="B12">
         <v>4</v>
       </c>
+      <c r="C12">
+        <v>0.93830000000000002</v>
+      </c>
+      <c r="D12">
+        <v>0.90210000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="F12">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="G12">
+        <v>0.93559999999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="I12">
+        <v>0.98919999999999997</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -9248,6 +11286,27 @@
       <c r="B14">
         <v>0.25</v>
       </c>
+      <c r="C14">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.877</v>
+      </c>
+      <c r="E14">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="F14">
+        <v>0.96940000000000004</v>
+      </c>
+      <c r="G14">
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="H14">
+        <v>0.98640000000000005</v>
+      </c>
+      <c r="I14">
+        <v>0.98799999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -9256,6 +11315,27 @@
       <c r="B15">
         <v>0.5</v>
       </c>
+      <c r="C15">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="D15">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="E15">
+        <v>0.96679999999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.96419999999999995</v>
+      </c>
+      <c r="G15">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="H15">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="I15">
+        <v>0.98680000000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -9264,114 +11344,450 @@
       <c r="B16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>0.93389999999999995</v>
+      </c>
+      <c r="D16">
+        <v>0.90429999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.96240000000000003</v>
+      </c>
+      <c r="F16">
+        <v>0.95930000000000004</v>
+      </c>
+      <c r="G16">
+        <v>0.93059999999999998</v>
+      </c>
+      <c r="H16">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="I16">
+        <v>0.98609999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>0.93830000000000002</v>
+      </c>
+      <c r="D17">
+        <v>0.91</v>
+      </c>
+      <c r="E17">
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.96479999999999999</v>
+      </c>
+      <c r="G17">
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="I17">
+        <v>0.98870000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0.92710000000000004</v>
+      </c>
+      <c r="D18">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="E18">
+        <v>0.97709999999999997</v>
+      </c>
+      <c r="F18">
+        <v>0.97460000000000002</v>
+      </c>
+      <c r="G18">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="I18">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="D20">
+        <v>0.90880000000000005</v>
+      </c>
+      <c r="E20">
+        <v>0.96330000000000005</v>
+      </c>
+      <c r="F20">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="G20">
+        <v>0.93379999999999996</v>
+      </c>
+      <c r="H20">
+        <v>0.98640000000000005</v>
+      </c>
+      <c r="I20">
+        <v>0.98629999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="D21">
+        <v>0.85</v>
+      </c>
+      <c r="E21">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="F21">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G21">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="H21">
+        <v>0.9899</v>
+      </c>
+      <c r="I21">
+        <v>0.98919999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>0.92030000000000001</v>
+      </c>
+      <c r="D22">
+        <v>0.86050000000000004</v>
+      </c>
+      <c r="E22">
+        <v>0.98109999999999997</v>
+      </c>
+      <c r="F22">
+        <v>0.9788</v>
+      </c>
+      <c r="G22">
+        <v>0.91569999999999996</v>
+      </c>
+      <c r="H22">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="I22">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>0.9214</v>
+      </c>
+      <c r="D23">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="E23">
+        <v>0.96509999999999996</v>
+      </c>
+      <c r="F23">
+        <v>0.96240000000000003</v>
+      </c>
+      <c r="G23">
+        <v>0.91710000000000003</v>
+      </c>
+      <c r="H23">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="I23">
+        <v>0.98319999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>0.92449999999999999</v>
+      </c>
+      <c r="D24">
+        <v>0.88990000000000002</v>
+      </c>
+      <c r="E24">
+        <v>0.95889999999999997</v>
+      </c>
+      <c r="F24">
+        <v>0.95579999999999998</v>
+      </c>
+      <c r="G24">
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="H24">
+        <v>0.98319999999999996</v>
+      </c>
+      <c r="I24">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
       <c r="B26">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="D26">
+        <v>0.89680000000000004</v>
+      </c>
+      <c r="E26">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="F26">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="G26">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="H26">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="I26">
+        <v>0.98850000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
       <c r="B27">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="D27">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="E27">
+        <v>0.97070000000000001</v>
+      </c>
+      <c r="F27">
+        <v>0.96809999999999996</v>
+      </c>
+      <c r="G27">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="H27">
+        <v>0.98850000000000005</v>
+      </c>
+      <c r="I27">
+        <v>0.98850000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="D28">
+        <v>0.87880000000000003</v>
+      </c>
+      <c r="E28">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="F28">
+        <v>0.96889999999999998</v>
+      </c>
+      <c r="G28">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="H28">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="I28">
+        <v>0.98709999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>0.93569999999999998</v>
+      </c>
+      <c r="D29">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="E29">
+        <v>0.96830000000000005</v>
+      </c>
+      <c r="F29">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="G29">
+        <v>0.93340000000000001</v>
+      </c>
+      <c r="H29">
+        <v>0.98850000000000005</v>
+      </c>
+      <c r="I29">
+        <v>0.98760000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="C30">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="D30">
+        <v>0.88990000000000002</v>
+      </c>
+      <c r="E30">
+        <v>0.97460000000000002</v>
+      </c>
+      <c r="F30">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="G30">
+        <v>0.92889999999999995</v>
+      </c>
+      <c r="H30">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="I30">
+        <v>0.98729999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="C32" s="3">
+        <f>MAX(C2:C30)</f>
+        <v>0.94610000000000005</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3">
+        <f t="shared" ref="G32:I32" si="0">MAX(G2:G30)</f>
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99070000000000003</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99060000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="22" t="s">
         <v>23</v>
+      </c>
+      <c r="C33" s="3">
+        <f>MIN(C2:C30)</f>
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3">
+        <f t="shared" ref="G33:I33" si="1">MIN(G2:G30)</f>
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="1"/>
+        <v>0.98319999999999996</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="1"/>
+        <v>0.97789999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1">
+        <f>AVERAGE(C2:C30)</f>
+        <v>0.92981199999999975</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1">
+        <f t="shared" ref="G34:I34" si="2">AVERAGE(G2:G30)</f>
+        <v>0.92639600000000011</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98789599999999989</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98698399999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/Hyperparameter_Tuning/Graph_Embedding_SkipGNN.xlsx
+++ b/results/Hyperparameter_Tuning/Graph_Embedding_SkipGNN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="deepwalk" sheetId="16" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="44">
   <si>
     <t>Accuracy</t>
   </si>
@@ -167,12 +167,15 @@
   <si>
     <t>order=3, epochs=25</t>
   </si>
+  <si>
+    <t>Order 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +200,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -285,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -348,6 +358,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3462,7 +3478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -7493,10 +7509,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23:P23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7508,14 +7524,12 @@
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -7549,25 +7563,25 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.93779999999999997</v>
+        <v>0.92759999999999998</v>
       </c>
       <c r="C3">
-        <v>0.90349999999999997</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="D3">
-        <v>0.97160000000000002</v>
+        <v>0.97089999999999999</v>
       </c>
       <c r="E3">
-        <v>0.96950000000000003</v>
+        <v>0.96809999999999996</v>
       </c>
       <c r="F3">
-        <v>0.93459999999999999</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G3">
-        <v>0.99050000000000005</v>
+        <v>0.98839999999999995</v>
       </c>
       <c r="H3">
-        <v>0.99019999999999997</v>
+        <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -7575,77 +7589,77 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.92630000000000001</v>
+        <v>0.92730000000000001</v>
       </c>
       <c r="C4">
-        <v>0.88219999999999998</v>
+        <v>0.88570000000000004</v>
       </c>
       <c r="D4">
-        <v>0.97030000000000005</v>
+        <v>0.96919999999999995</v>
       </c>
       <c r="E4">
-        <v>0.9677</v>
+        <v>0.96689999999999998</v>
       </c>
       <c r="F4">
-        <v>0.92259999999999998</v>
+        <v>0.92390000000000005</v>
       </c>
       <c r="G4">
-        <v>0.98829999999999996</v>
+        <v>0.98660000000000003</v>
       </c>
       <c r="H4">
+        <v>0.9859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.91930000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="E5">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="F5">
+        <v>0.91490000000000005</v>
+      </c>
+      <c r="G5">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="H5">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.87949999999999995</v>
+      </c>
+      <c r="D6">
+        <v>0.97070000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.96809999999999996</v>
+      </c>
+      <c r="F6">
+        <v>0.9214</v>
+      </c>
+      <c r="G6">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="H6">
         <v>0.98870000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
-        <v>15</v>
-      </c>
-      <c r="B5" s="35">
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="C5" s="34">
-        <v>0.92230000000000001</v>
-      </c>
-      <c r="D5" s="34">
-        <v>0.95550000000000002</v>
-      </c>
-      <c r="E5" s="34">
-        <v>0.95489999999999997</v>
-      </c>
-      <c r="F5" s="35">
-        <v>0.93789999999999996</v>
-      </c>
-      <c r="G5" s="34">
-        <v>0.98550000000000004</v>
-      </c>
-      <c r="H5" s="34">
-        <v>0.98619999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
-        <v>20</v>
-      </c>
-      <c r="B6" s="16">
-        <v>0.9234</v>
-      </c>
-      <c r="C6" s="16">
-        <v>0.8841</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0.96350000000000002</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0.92090000000000005</v>
-      </c>
-      <c r="G6" s="16">
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="H6" s="16">
-        <v>0.98650000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -7653,25 +7667,25 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>0.93569999999999998</v>
+        <v>0.92549999999999999</v>
       </c>
       <c r="C7">
-        <v>0.90669999999999995</v>
+        <v>0.87339999999999995</v>
       </c>
       <c r="D7">
-        <v>0.96419999999999995</v>
+        <v>0.97729999999999995</v>
       </c>
       <c r="E7">
-        <v>0.96220000000000006</v>
+        <v>0.97460000000000002</v>
       </c>
       <c r="F7">
-        <v>0.93310000000000004</v>
+        <v>0.92079999999999995</v>
       </c>
       <c r="G7">
-        <v>0.98670000000000002</v>
+        <v>0.98709999999999998</v>
       </c>
       <c r="H7">
-        <v>0.98429999999999995</v>
+        <v>0.98370000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -7679,25 +7693,25 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.93410000000000004</v>
+        <v>0.92969999999999997</v>
       </c>
       <c r="C8">
-        <v>0.89249999999999996</v>
+        <v>0.89439999999999997</v>
       </c>
       <c r="D8">
-        <v>0.97560000000000002</v>
+        <v>0.96540000000000004</v>
       </c>
       <c r="E8">
-        <v>0.97330000000000005</v>
+        <v>0.96379999999999999</v>
       </c>
       <c r="F8">
-        <v>0.93069999999999997</v>
+        <v>0.92720000000000002</v>
       </c>
       <c r="G8">
-        <v>0.98299999999999998</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="H8">
-        <v>0.98650000000000004</v>
+        <v>0.98270000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -7705,25 +7719,25 @@
         <v>35</v>
       </c>
       <c r="B9">
-        <v>0.93359999999999999</v>
+        <v>0.92889999999999995</v>
       </c>
       <c r="C9">
-        <v>0.89990000000000003</v>
+        <v>0.89039999999999997</v>
       </c>
       <c r="D9">
-        <v>0.96679999999999999</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="E9">
-        <v>0.96499999999999997</v>
+        <v>0.96409999999999996</v>
       </c>
       <c r="F9">
-        <v>0.93049999999999999</v>
+        <v>0.92459999999999998</v>
       </c>
       <c r="G9">
-        <v>0.98519999999999996</v>
+        <v>0.98860000000000003</v>
       </c>
       <c r="H9">
-        <v>0.98660000000000003</v>
+        <v>0.98780000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -7731,25 +7745,25 @@
         <v>40</v>
       </c>
       <c r="B10">
-        <v>0.93049999999999999</v>
+        <v>0.92059999999999997</v>
       </c>
       <c r="C10">
-        <v>0.88329999999999997</v>
+        <v>0.86839999999999995</v>
       </c>
       <c r="D10">
-        <v>0.97809999999999997</v>
+        <v>0.9728</v>
       </c>
       <c r="E10">
-        <v>0.97619999999999996</v>
+        <v>0.97</v>
       </c>
       <c r="F10">
-        <v>0.92710000000000004</v>
+        <v>0.9163</v>
       </c>
       <c r="G10">
-        <v>0.98919999999999997</v>
+        <v>0.98819999999999997</v>
       </c>
       <c r="H10">
-        <v>0.98939999999999995</v>
+        <v>0.98780000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -7757,51 +7771,51 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.93049999999999999</v>
+        <v>0.92710000000000004</v>
       </c>
       <c r="C11">
-        <v>0.89600000000000002</v>
+        <v>0.87670000000000003</v>
       </c>
       <c r="D11">
-        <v>0.96509999999999996</v>
+        <v>0.97750000000000004</v>
       </c>
       <c r="E11">
-        <v>0.96299999999999997</v>
+        <v>0.97570000000000001</v>
       </c>
       <c r="F11">
-        <v>0.92759999999999998</v>
+        <v>0.92290000000000005</v>
       </c>
       <c r="G11">
-        <v>0.98519999999999996</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="H11">
-        <v>0.97140000000000004</v>
+        <v>0.98860000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>50</v>
       </c>
-      <c r="B12">
-        <v>0.92579999999999996</v>
+      <c r="B12" s="47">
+        <v>0.93230000000000002</v>
       </c>
       <c r="C12">
-        <v>0.87849999999999995</v>
+        <v>0.89090000000000003</v>
       </c>
       <c r="D12">
-        <v>0.97289999999999999</v>
+        <v>0.97350000000000003</v>
       </c>
       <c r="E12">
-        <v>0.97009999999999996</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="F12">
-        <v>0.92200000000000004</v>
+        <v>0.92920000000000003</v>
       </c>
       <c r="G12">
-        <v>0.98909999999999998</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="H12">
-        <v>0.98899999999999999</v>
+        <v>0.98570000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -7813,22 +7827,22 @@
       </c>
       <c r="B14" s="3">
         <f>MAX(B3:B12)</f>
-        <v>0.93879999999999997</v>
+        <v>0.93230000000000002</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
-        <f t="shared" ref="F14:H14" si="0">MAX(F3:F12)</f>
-        <v>0.93789999999999996</v>
+        <f>MAX(F3:F12)</f>
+        <v>0.92920000000000003</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.99050000000000005</v>
+        <f>MAX(G3:G12)</f>
+        <v>0.98909999999999998</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.99019999999999997</v>
+        <f>MAX(H3:H12)</f>
+        <v>0.98870000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -7837,30 +7851,40 @@
       </c>
       <c r="B15" s="3">
         <f>MIN(B3:B12)</f>
-        <v>0.9234</v>
+        <v>0.91930000000000001</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3">
-        <f t="shared" ref="F15:H15" si="1">MIN(F3:F12)</f>
-        <v>0.92090000000000005</v>
+        <f>MIN(F3:F12)</f>
+        <v>0.91490000000000005</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="1"/>
-        <v>0.98299999999999998</v>
+        <f>MIN(G3:G12)</f>
+        <v>0.97899999999999998</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="1"/>
-        <v>0.97140000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <f>MIN(H3:H12)</f>
+        <v>0.98270000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>18</v>
       </c>
@@ -7885,560 +7909,655 @@
       <c r="H18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>5</v>
       </c>
       <c r="B19">
-        <v>0.93410000000000004</v>
+        <v>0.9284</v>
       </c>
       <c r="C19">
-        <v>0.89529999999999998</v>
+        <v>0.87719999999999998</v>
       </c>
       <c r="D19">
-        <v>0.97230000000000005</v>
+        <v>0.98</v>
       </c>
       <c r="E19">
-        <v>0.97050000000000003</v>
+        <v>0.97829999999999995</v>
       </c>
       <c r="F19">
-        <v>0.93079999999999996</v>
+        <v>0.92479999999999996</v>
       </c>
       <c r="G19">
-        <v>0.98470000000000002</v>
+        <v>0.98580000000000001</v>
       </c>
       <c r="H19">
-        <v>0.98480000000000001</v>
-      </c>
-      <c r="J19">
-        <v>0.93540000000000001</v>
-      </c>
-      <c r="K19">
-        <v>0.89759999999999995</v>
-      </c>
-      <c r="L19">
-        <v>0.97209999999999996</v>
-      </c>
-      <c r="M19">
-        <v>0.96940000000000004</v>
-      </c>
-      <c r="N19">
-        <v>0.93179999999999996</v>
-      </c>
-      <c r="O19">
-        <v>0.98960000000000004</v>
-      </c>
-      <c r="P19">
-        <v>0.98899999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+        <v>0.98770000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>10</v>
       </c>
       <c r="B20">
-        <v>0.93389999999999995</v>
+        <v>0.92659999999999998</v>
       </c>
       <c r="C20">
-        <v>0.90269999999999995</v>
+        <v>0.88109999999999999</v>
       </c>
       <c r="D20">
-        <v>0.96509999999999996</v>
+        <v>0.97240000000000004</v>
       </c>
       <c r="E20">
-        <v>0.96289999999999998</v>
+        <v>0.9698</v>
       </c>
       <c r="F20">
-        <v>0.93159999999999998</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="G20">
-        <v>0.98499999999999999</v>
+        <v>0.98319999999999996</v>
       </c>
       <c r="H20">
+        <v>0.98429999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>0.93489999999999995</v>
+      </c>
+      <c r="C21">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="D21">
+        <v>0.96319999999999995</v>
+      </c>
+      <c r="E21">
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="F21">
+        <v>0.9325</v>
+      </c>
+      <c r="G21">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="H21">
+        <v>0.98180000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.94089999999999996</v>
+      </c>
+      <c r="C22">
+        <v>0.9204</v>
+      </c>
+      <c r="D22">
+        <v>0.96179999999999999</v>
+      </c>
+      <c r="E22">
+        <v>0.96</v>
+      </c>
+      <c r="F22">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="G22">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="H22">
+        <v>0.9879</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="C23">
+        <v>0.87</v>
+      </c>
+      <c r="D23">
+        <v>0.96889999999999998</v>
+      </c>
+      <c r="E23">
+        <v>0.96560000000000001</v>
+      </c>
+      <c r="F23">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="G23">
         <v>0.98580000000000001</v>
       </c>
-      <c r="J20">
+      <c r="H23">
+        <v>0.98599999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>0.93489999999999995</v>
+      </c>
+      <c r="C24">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="D24">
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="E24">
+        <v>0.96409999999999996</v>
+      </c>
+      <c r="F24">
         <v>0.93120000000000003</v>
       </c>
-      <c r="K20">
-        <v>0.88990000000000002</v>
-      </c>
-      <c r="L20">
-        <v>0.9738</v>
-      </c>
-      <c r="M20">
-        <v>0.97230000000000005</v>
-      </c>
-      <c r="N20">
-        <v>0.92830000000000001</v>
-      </c>
-      <c r="O20">
-        <v>0.98950000000000005</v>
-      </c>
-      <c r="P20">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>0.92369999999999997</v>
-      </c>
-      <c r="C21">
-        <v>0.87880000000000003</v>
-      </c>
-      <c r="D21">
-        <v>0.96870000000000001</v>
-      </c>
-      <c r="E21">
-        <v>0.9657</v>
-      </c>
-      <c r="F21">
-        <v>0.91990000000000005</v>
-      </c>
-      <c r="G21">
-        <v>0.9869</v>
-      </c>
-      <c r="H21">
-        <v>0.98740000000000006</v>
-      </c>
-      <c r="J21">
-        <v>0.93020000000000003</v>
-      </c>
-      <c r="K21">
-        <v>0.89159999999999995</v>
-      </c>
-      <c r="L21">
-        <v>0.96879999999999999</v>
-      </c>
-      <c r="M21">
-        <v>0.96619999999999995</v>
-      </c>
-      <c r="N21">
-        <v>0.92720000000000002</v>
-      </c>
-      <c r="O21">
+      <c r="G24">
         <v>0.98870000000000002</v>
       </c>
-      <c r="P21">
-        <v>0.98350000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="33">
-        <v>20</v>
-      </c>
-      <c r="B22" s="35">
-        <v>0.94110000000000005</v>
-      </c>
-      <c r="C22" s="34">
-        <v>0.92110000000000003</v>
-      </c>
-      <c r="D22" s="34">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="E22" s="34">
-        <v>0.95930000000000004</v>
-      </c>
-      <c r="F22" s="35">
-        <v>0.93979999999999997</v>
-      </c>
-      <c r="G22" s="34">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="H22" s="34">
-        <v>0.98550000000000004</v>
-      </c>
-      <c r="J22">
-        <v>0.92789999999999995</v>
-      </c>
-      <c r="K22">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="L22">
-        <v>0.97450000000000003</v>
-      </c>
-      <c r="M22">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="N22">
-        <v>0.92410000000000003</v>
-      </c>
-      <c r="O22" s="11">
-        <v>0.99129999999999996</v>
-      </c>
-      <c r="P22" s="11">
-        <v>0.99099999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>0.93310000000000004</v>
-      </c>
-      <c r="C23">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="D23">
-        <v>0.97319999999999995</v>
-      </c>
-      <c r="E23">
-        <v>0.97030000000000005</v>
-      </c>
-      <c r="F23">
-        <v>0.92920000000000003</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0.99119999999999997</v>
-      </c>
-      <c r="H23" s="11">
-        <v>0.99080000000000001</v>
-      </c>
-      <c r="J23" s="11">
-        <v>0.93620000000000003</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="L23">
-        <v>0.96970000000000001</v>
-      </c>
-      <c r="M23">
-        <v>0.96779999999999999</v>
-      </c>
-      <c r="N23" s="11">
-        <v>0.93410000000000004</v>
-      </c>
-      <c r="O23">
-        <v>0.98729999999999996</v>
-      </c>
-      <c r="P23">
-        <v>0.97719999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>30</v>
-      </c>
-      <c r="B24">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="C24">
-        <v>0.87739999999999996</v>
-      </c>
-      <c r="D24">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="E24">
-        <v>0.97150000000000003</v>
-      </c>
-      <c r="F24">
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="G24">
-        <v>0.99050000000000005</v>
-      </c>
       <c r="H24">
-        <v>0.99029999999999996</v>
-      </c>
-      <c r="J24">
-        <v>0.92969999999999997</v>
-      </c>
-      <c r="K24">
-        <v>0.88729999999999998</v>
-      </c>
-      <c r="L24">
-        <v>0.97230000000000005</v>
-      </c>
-      <c r="M24">
-        <v>0.97009999999999996</v>
-      </c>
-      <c r="N24">
-        <v>0.92669999999999997</v>
-      </c>
-      <c r="O24">
-        <v>0.98719999999999997</v>
-      </c>
-      <c r="P24">
-        <v>0.98909999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+        <v>0.98770000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="41">
         <v>35</v>
       </c>
-      <c r="B25">
-        <v>0.91410000000000002</v>
-      </c>
-      <c r="C25">
-        <v>0.84630000000000005</v>
-      </c>
-      <c r="D25">
-        <v>0.98129999999999995</v>
-      </c>
-      <c r="E25">
-        <v>0.97840000000000005</v>
-      </c>
-      <c r="F25">
-        <v>0.90739999999999998</v>
-      </c>
-      <c r="G25">
-        <v>0.99039999999999995</v>
-      </c>
-      <c r="H25">
-        <v>0.98980000000000001</v>
-      </c>
-      <c r="J25">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="K25">
-        <v>0.87619999999999998</v>
-      </c>
-      <c r="L25">
-        <v>0.9748</v>
-      </c>
-      <c r="M25">
-        <v>0.97250000000000003</v>
-      </c>
-      <c r="N25">
-        <v>0.92159999999999997</v>
-      </c>
-      <c r="O25">
-        <v>0.98929999999999996</v>
-      </c>
-      <c r="P25">
-        <v>0.98899999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="35">
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="C25" s="34">
+        <v>0.91710000000000003</v>
+      </c>
+      <c r="D25" s="34">
+        <v>0.96679999999999999</v>
+      </c>
+      <c r="E25" s="34">
+        <v>0.96579999999999999</v>
+      </c>
+      <c r="F25" s="35">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="G25" s="35">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="H25" s="35">
+        <v>0.99139999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>40</v>
       </c>
       <c r="B26">
+        <v>0.93020000000000003</v>
+      </c>
+      <c r="C26">
+        <v>0.88580000000000003</v>
+      </c>
+      <c r="D26">
+        <v>0.97460000000000002</v>
+      </c>
+      <c r="E26">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="F26">
         <v>0.92679999999999996</v>
       </c>
-      <c r="C26">
-        <v>0.88639999999999997</v>
-      </c>
-      <c r="D26">
-        <v>0.96760000000000002</v>
-      </c>
-      <c r="E26">
-        <v>0.96609999999999996</v>
-      </c>
-      <c r="F26">
-        <v>0.92310000000000003</v>
-      </c>
       <c r="G26">
-        <v>0.98899999999999999</v>
+        <v>0.99019999999999997</v>
       </c>
       <c r="H26">
+        <v>0.98939999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>45</v>
+      </c>
+      <c r="B27">
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="C27">
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="D27">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="E27">
+        <v>0.94369999999999998</v>
+      </c>
+      <c r="F27">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="G27">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="H27">
+        <v>0.98740000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>0.92369999999999997</v>
+      </c>
+      <c r="C28">
+        <v>0.87160000000000004</v>
+      </c>
+      <c r="D28">
+        <v>0.97619999999999996</v>
+      </c>
+      <c r="E28">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="F28">
+        <v>0.91910000000000003</v>
+      </c>
+      <c r="G28">
         <v>0.98839999999999995</v>
       </c>
-      <c r="J26">
-        <v>0.9234</v>
-      </c>
-      <c r="K26">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="L26">
-        <v>0.95620000000000005</v>
-      </c>
-      <c r="M26">
-        <v>0.9556</v>
-      </c>
-      <c r="N26">
-        <v>0.91930000000000001</v>
-      </c>
-      <c r="O26">
-        <v>0.98719999999999997</v>
-      </c>
-      <c r="P26">
-        <v>0.98709999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>45</v>
-      </c>
-      <c r="B27">
-        <v>0.9083</v>
-      </c>
-      <c r="C27">
-        <v>0.84540000000000004</v>
-      </c>
-      <c r="D27">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="E27">
-        <v>0.97030000000000005</v>
-      </c>
-      <c r="F27">
-        <v>0.90280000000000005</v>
-      </c>
-      <c r="G27">
-        <v>0.98740000000000006</v>
-      </c>
-      <c r="H27">
-        <v>0.98529999999999995</v>
-      </c>
-      <c r="J27">
-        <v>0.91610000000000003</v>
-      </c>
-      <c r="K27">
-        <v>0.85680000000000001</v>
-      </c>
-      <c r="L27">
-        <v>0.97509999999999997</v>
-      </c>
-      <c r="M27">
-        <v>0.97160000000000002</v>
-      </c>
-      <c r="N27">
-        <v>0.9103</v>
-      </c>
-      <c r="O27">
-        <v>0.98429999999999995</v>
-      </c>
-      <c r="P27">
-        <v>0.9869</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>50</v>
-      </c>
-      <c r="B28">
-        <v>0.9224</v>
-      </c>
-      <c r="C28">
-        <v>0.88249999999999995</v>
-      </c>
-      <c r="D28">
-        <v>0.96350000000000002</v>
-      </c>
-      <c r="E28">
-        <v>0.9617</v>
-      </c>
-      <c r="F28">
-        <v>0.91979999999999995</v>
-      </c>
-      <c r="G28">
-        <v>0.98509999999999998</v>
-      </c>
       <c r="H28">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="J28">
-        <v>0.93020000000000003</v>
-      </c>
-      <c r="K28">
-        <v>0.89139999999999997</v>
-      </c>
-      <c r="L28">
-        <v>0.96879999999999999</v>
-      </c>
-      <c r="M28">
-        <v>0.96609999999999996</v>
-      </c>
-      <c r="N28">
-        <v>0.92720000000000002</v>
-      </c>
-      <c r="O28">
-        <v>0.98970000000000002</v>
-      </c>
-      <c r="P28">
-        <v>0.98939999999999995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.98870000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="42">
+      <c r="B30" s="3">
         <f>MAX(B19:B28)</f>
-        <v>0.94110000000000005</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42">
-        <f t="shared" ref="F30:H30" si="2">MAX(F19:F28)</f>
-        <v>0.93979999999999997</v>
-      </c>
-      <c r="G30" s="42">
-        <f t="shared" si="2"/>
-        <v>0.99119999999999997</v>
-      </c>
-      <c r="H30" s="42">
-        <f t="shared" si="2"/>
-        <v>0.99080000000000001</v>
-      </c>
-      <c r="J30">
-        <f>MAX(J19:J28)</f>
-        <v>0.93620000000000003</v>
-      </c>
-      <c r="N30">
-        <f t="shared" ref="N30:P30" si="3">MAX(N19:N28)</f>
-        <v>0.93410000000000004</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="3"/>
-        <v>0.99129999999999996</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="3"/>
-        <v>0.99099999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3">
+        <f t="shared" ref="F30:H30" si="0">MAX(F19:F28)</f>
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99139999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="42">
+      <c r="B31" s="3">
         <f>MIN(B19:B28)</f>
-        <v>0.9083</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42">
-        <f t="shared" ref="F31:H31" si="4">MIN(F19:F28)</f>
-        <v>0.90280000000000005</v>
-      </c>
-      <c r="G31" s="42">
-        <f t="shared" si="4"/>
-        <v>0.98470000000000002</v>
-      </c>
-      <c r="H31" s="42">
-        <f t="shared" si="4"/>
-        <v>0.98480000000000001</v>
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3">
+        <f t="shared" ref="F31:H31" si="1">MIN(F19:F28)</f>
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="1"/>
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="1"/>
+        <v>0.98180000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>0.93540000000000001</v>
+      </c>
+      <c r="C35">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="D35">
+        <v>0.97209999999999996</v>
+      </c>
+      <c r="E35">
+        <v>0.96940000000000004</v>
+      </c>
+      <c r="F35">
+        <v>0.93179999999999996</v>
+      </c>
+      <c r="G35">
+        <v>0.98960000000000004</v>
+      </c>
+      <c r="H35">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>0.93120000000000003</v>
+      </c>
+      <c r="C36">
+        <v>0.88990000000000002</v>
+      </c>
+      <c r="D36">
+        <v>0.9738</v>
+      </c>
+      <c r="E36">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="F36">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="G36">
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="H36">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>0.93020000000000003</v>
+      </c>
+      <c r="C37">
+        <v>0.89159999999999995</v>
+      </c>
+      <c r="D37">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="E37">
+        <v>0.96619999999999995</v>
+      </c>
+      <c r="F37">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="G37">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="H37">
+        <v>0.98350000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <v>0.92789999999999995</v>
+      </c>
+      <c r="C38">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="D38">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="E38">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="F38">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0.99099999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="33">
+        <v>25</v>
+      </c>
+      <c r="B39" s="35">
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="C39" s="35">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="D39" s="34">
+        <v>0.96970000000000001</v>
+      </c>
+      <c r="E39" s="34">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="F39" s="35">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="G39" s="34">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="H39" s="34">
+        <v>0.97719999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>30</v>
+      </c>
+      <c r="B40">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="C40">
+        <v>0.88729999999999998</v>
+      </c>
+      <c r="D40">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="E40">
+        <v>0.97009999999999996</v>
+      </c>
+      <c r="F40">
+        <v>0.92669999999999997</v>
+      </c>
+      <c r="G40">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="H40">
+        <v>0.98909999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>35</v>
+      </c>
+      <c r="B41">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="C41">
+        <v>0.87619999999999998</v>
+      </c>
+      <c r="D41">
+        <v>0.9748</v>
+      </c>
+      <c r="E41">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="F41">
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="G41">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="H41">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.9234</v>
+      </c>
+      <c r="C42">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="D42">
+        <v>0.95620000000000005</v>
+      </c>
+      <c r="E42">
+        <v>0.9556</v>
+      </c>
+      <c r="F42">
+        <v>0.91930000000000001</v>
+      </c>
+      <c r="G42">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="H42">
+        <v>0.98709999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="C43">
+        <v>0.85680000000000001</v>
+      </c>
+      <c r="D43">
+        <v>0.97509999999999997</v>
+      </c>
+      <c r="E43">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="F43">
+        <v>0.9103</v>
+      </c>
+      <c r="G43">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="H43">
+        <v>0.9869</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>50</v>
+      </c>
+      <c r="B44">
+        <v>0.93020000000000003</v>
+      </c>
+      <c r="C44">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="D44">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="E44">
+        <v>0.96609999999999996</v>
+      </c>
+      <c r="F44">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="G44">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="H44">
+        <v>0.98939999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="42">
+        <f>MAX(B35:B44)</f>
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42">
+        <f t="shared" ref="F46:H46" si="2">MAX(F35:F44)</f>
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="G46" s="42">
+        <f t="shared" si="2"/>
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="H46" s="42">
+        <f t="shared" si="2"/>
+        <v>0.99099999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="3">
+        <f>MIN(B35:B44)</f>
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42">
+        <f t="shared" ref="F47:H47" si="3">MIN(F35:F44)</f>
+        <v>0.9103</v>
+      </c>
+      <c r="G47" s="42">
+        <f t="shared" si="3"/>
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="H47" s="42">
+        <f t="shared" si="3"/>
+        <v>0.97719999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/results/Hyperparameter_Tuning/Graph_Embedding_SkipGNN.xlsx
+++ b/results/Hyperparameter_Tuning/Graph_Embedding_SkipGNN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="deepwalk" sheetId="16" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="45">
   <si>
     <t>Accuracy</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Order 1</t>
+  </si>
+  <si>
+    <t>ksteps=2</t>
   </si>
 </sst>
 </file>
@@ -422,17 +425,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-SG"/>
-              <a:t>Network Reconstruction</a:t>
+              <a:rPr lang="en-SG" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Network Reconstruction (Skip-GNN)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-SG" baseline="0"/>
-              <a:t> (</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-SG"/>
-              <a:t>Skip-GNN)</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-SG" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -558,7 +558,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-76D3-4604-833F-0410991E66C6}"/>
+              <c16:uniqueId val="{00000000-7B18-48CC-83FD-AE08D0E29F4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -647,7 +647,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-76D3-4604-833F-0410991E66C6}"/>
+              <c16:uniqueId val="{00000001-7B18-48CC-83FD-AE08D0E29F4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -736,7 +736,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-76D3-4604-833F-0410991E66C6}"/>
+              <c16:uniqueId val="{00000002-7B18-48CC-83FD-AE08D0E29F4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -825,7 +825,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-76D3-4604-833F-0410991E66C6}"/>
+              <c16:uniqueId val="{00000003-7B18-48CC-83FD-AE08D0E29F4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -914,7 +914,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-76D3-4604-833F-0410991E66C6}"/>
+              <c16:uniqueId val="{00000004-7B18-48CC-83FD-AE08D0E29F4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1003,7 +1003,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-76D3-4604-833F-0410991E66C6}"/>
+              <c16:uniqueId val="{00000005-7B18-48CC-83FD-AE08D0E29F4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1094,7 +1094,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-76D3-4604-833F-0410991E66C6}"/>
+              <c16:uniqueId val="{00000006-7B18-48CC-83FD-AE08D0E29F4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1185,7 +1185,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-76D3-4604-833F-0410991E66C6}"/>
+              <c16:uniqueId val="{00000007-7B18-48CC-83FD-AE08D0E29F4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1251,32 +1251,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.93179999999999996</c:v>
+                  <c:v>0.91539999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89990000000000003</c:v>
+                  <c:v>0.85370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96389999999999998</c:v>
+                  <c:v>0.97750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96199999999999997</c:v>
+                  <c:v>0.97450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92920000000000003</c:v>
+                  <c:v>0.90990000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98750000000000004</c:v>
+                  <c:v>0.98939999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98670000000000002</c:v>
+                  <c:v>0.98899999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-76D3-4604-833F-0410991E66C6}"/>
+              <c16:uniqueId val="{00000008-7B18-48CC-83FD-AE08D0E29F4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1290,11 +1290,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="701303023"/>
-        <c:axId val="701307599"/>
+        <c:axId val="954628543"/>
+        <c:axId val="954644351"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="701303023"/>
+        <c:axId val="954628543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1337,7 +1337,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="701307599"/>
+        <c:crossAx val="954644351"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1345,7 +1345,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="701307599"/>
+        <c:axId val="954644351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1398,7 +1398,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="701303023"/>
+        <c:crossAx val="954628543"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2026,20 +2026,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3476,10 +3476,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="A2" sqref="A2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3762,28 +3762,57 @@
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
+        <v>0.91539999999999999</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.85370000000000001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.97750000000000004</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
         <v>0.93179999999999996</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>0.89990000000000003</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>0.96389999999999998</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <v>0.96199999999999997</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <v>0.92920000000000003</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <v>0.98750000000000004</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H11" s="2">
         <v>0.98670000000000002</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7511,7 +7540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
@@ -8570,8 +8599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
